--- a/Doc/XmlDataDocument_170515_장비추가.xlsx
+++ b/Doc/XmlDataDocument_170515_장비추가.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Consumable" sheetId="7" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="509">
   <si>
     <t>hero</t>
   </si>
@@ -1812,130 +1812,260 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPriceReduceXH</t>
+  </si>
+  <si>
+    <t>RPriceReduceXH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소드맨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DpcIncreaseXH</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>E07</t>
+  </si>
+  <si>
+    <t>E08</t>
+  </si>
+  <si>
+    <t>E09</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>검술연마6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술연마7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 화염구7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 각얼음5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>원소를 부여해 검술을 강화합니다. \n기본공격력 2.08 &gt; 3.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원소를 부여해 검술을 강화합니다. \n기본공격력 3.25 &gt; 4.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원소를 부여해 검술을 강화합니다. \n기본공격력 4.55 &gt; 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직장검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어장검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닠장검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>힘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LPriceReduceXH</t>
-  </si>
-  <si>
-    <t>RPriceReduceXH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬등급평가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상위스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장검</t>
+    <t>0에서3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드랍레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장부위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1943,117 +2073,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소드맨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소드마스터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DpcIncreaseXH</t>
-  </si>
-  <si>
-    <t>E02</t>
-  </si>
-  <si>
-    <t>E03</t>
-  </si>
-  <si>
-    <t>E04</t>
-  </si>
-  <si>
-    <t>E05</t>
-  </si>
-  <si>
-    <t>E06</t>
-  </si>
-  <si>
-    <t>E07</t>
-  </si>
-  <si>
-    <t>E08</t>
-  </si>
-  <si>
-    <t>E09</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>E13</t>
-  </si>
-  <si>
-    <t>E14</t>
-  </si>
-  <si>
-    <t>E15</t>
-  </si>
-  <si>
-    <t>E16</t>
-  </si>
-  <si>
-    <t>E17</t>
-  </si>
-  <si>
-    <t>E18</t>
-  </si>
-  <si>
-    <t>E19</t>
-  </si>
-  <si>
-    <t>E20</t>
-  </si>
-  <si>
-    <t>E21</t>
-  </si>
-  <si>
-    <t>검술연마6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술연마7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비법 : 화염구7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비법 : 각얼음5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R39</t>
-  </si>
-  <si>
-    <t>R40</t>
-  </si>
-  <si>
-    <t>R41</t>
-  </si>
-  <si>
-    <t>R42</t>
-  </si>
-  <si>
-    <t>R43</t>
-  </si>
-  <si>
-    <t>원소를 부여해 검술을 강화합니다. \n기본공격력 2.08 &gt; 3.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원소를 부여해 검술을 강화합니다. \n기본공격력 3.25 &gt; 4.55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원소를 부여해 검술을 강화합니다. \n기본공격력 4.55 &gt; 6</t>
+    <t>레어소드맨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닠소드맨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직소드맨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67(의0.7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67(의0.3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2061,8 +2097,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0.0%"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -2437,7 +2474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2516,7 +2553,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -2640,6 +2677,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5889,7 +5929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -6025,7 +6065,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -6166,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -6452,7 +6492,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>421</v>
@@ -6507,7 +6547,7 @@
         <v>422</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="I13" s="22">
         <v>0</v>
@@ -6556,7 +6596,7 @@
         <v>423</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="I14" s="22">
         <v>0</v>
@@ -6599,13 +6639,13 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>424</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="I15" s="22">
         <v>0</v>
@@ -6919,7 +6959,7 @@
         <v>369</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="H21" s="1" t="str">
         <f>CONCATENATE("기본공격의 공격력이 ",Research!$P21,"배 증가합니다.")</f>
@@ -6972,7 +7012,7 @@
         <v>369</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="H22" s="1" t="str">
         <f>CONCATENATE("기본공격의 공격력이 ",Research!$P22,"배 증가합니다.")</f>
@@ -7343,7 +7383,7 @@
         <v>369</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="H29" s="1" t="str">
         <f>CONCATENATE("화염구의 공격력이 ",Research!$P29,"배 증가합니다.")</f>
@@ -7608,7 +7648,7 @@
         <v>369</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H34" s="1" t="str">
         <f>CONCATENATE("각얼음의 공격력이 ",Research!$P34,"배 증가합니다.")</f>
@@ -7907,7 +7947,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>18</v>
@@ -7960,7 +8000,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>188</v>
@@ -8013,7 +8053,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>0</v>
@@ -8065,7 +8105,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>0</v>
@@ -8117,7 +8157,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>0</v>
@@ -8862,8 +8902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9564,10 +9604,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="11.25"/>
@@ -9575,418 +9615,657 @@
     <col min="1" max="16384" width="8.625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="51" customFormat="1" ht="12" thickBot="1">
+    <row r="1" spans="1:31" s="51" customFormat="1" ht="12" thickBot="1">
       <c r="A1" s="51" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>439</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="C1" s="51" t="s">
         <v>440</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="51" t="s">
         <v>441</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="E1" s="51" t="s">
+        <v>501</v>
+      </c>
+      <c r="F1" s="51" t="s">
         <v>442</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="G1" s="52" t="s">
         <v>443</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="H1" s="53" t="s">
+        <v>432</v>
+      </c>
+      <c r="I1" s="54" t="s">
+        <v>433</v>
+      </c>
+      <c r="J1" s="54" t="s">
+        <v>498</v>
+      </c>
+      <c r="K1" s="55" t="s">
+        <v>499</v>
+      </c>
+      <c r="L1" s="56" t="s">
+        <v>494</v>
+      </c>
+      <c r="M1" s="57"/>
+      <c r="N1" s="51" t="s">
+        <v>438</v>
+      </c>
+      <c r="O1" s="52" t="s">
         <v>444</v>
       </c>
-      <c r="G1" s="53" t="s">
-        <v>433</v>
-      </c>
-      <c r="H1" s="54" t="s">
-        <v>434</v>
-      </c>
-      <c r="I1" s="54" t="s">
-        <v>432</v>
-      </c>
-      <c r="J1" s="55" t="s">
+      <c r="P1" s="52" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q1" s="52" t="s">
+        <v>501</v>
+      </c>
+      <c r="R1" s="51" t="s">
+        <v>494</v>
+      </c>
+      <c r="S1" s="58" t="s">
         <v>445</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="T1" s="59" t="s">
         <v>446</v>
       </c>
-      <c r="L1" s="57"/>
-      <c r="M1" s="51" t="s">
-        <v>439</v>
-      </c>
-      <c r="N1" s="52" t="s">
+      <c r="U1" s="60" t="s">
         <v>447</v>
       </c>
-      <c r="O1" s="51" t="s">
+      <c r="V1" s="58" t="s">
         <v>448</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="W1" s="59" t="s">
         <v>449</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="X1" s="60" t="s">
         <v>450</v>
       </c>
-      <c r="R1" s="59" t="s">
+      <c r="Y1" s="58" t="s">
         <v>451</v>
       </c>
-      <c r="S1" s="60" t="s">
+      <c r="Z1" s="59" t="s">
         <v>452</v>
       </c>
-      <c r="T1" s="58" t="s">
+      <c r="AA1" s="60" t="s">
         <v>453</v>
       </c>
-      <c r="U1" s="59" t="s">
+      <c r="AB1" s="58" t="s">
         <v>454</v>
       </c>
-      <c r="V1" s="60" t="s">
+      <c r="AC1" s="59" t="s">
         <v>455</v>
       </c>
-      <c r="W1" s="58" t="s">
+      <c r="AD1" s="60" t="s">
         <v>456</v>
       </c>
-      <c r="X1" s="59" t="s">
-        <v>457</v>
-      </c>
-      <c r="Y1" s="60" t="s">
-        <v>458</v>
-      </c>
-      <c r="Z1" s="58" t="s">
-        <v>459</v>
-      </c>
-      <c r="AA1" s="59" t="s">
-        <v>460</v>
-      </c>
-      <c r="AB1" s="60" t="s">
-        <v>461</v>
-      </c>
-      <c r="AC1" s="60" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AE1" s="60" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="57">
         <v>1</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C2" s="57" t="s">
         <v>420</v>
       </c>
       <c r="D2" s="57" t="s">
-        <v>463</v>
-      </c>
-      <c r="E2" s="57">
+        <v>458</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>507</v>
+      </c>
+      <c r="F2" s="57">
         <v>0</v>
       </c>
-      <c r="F2" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="G2" s="61">
-        <v>10</v>
-      </c>
-      <c r="H2" s="62">
-        <v>0</v>
+      <c r="G2" s="57" t="s">
+        <v>459</v>
+      </c>
+      <c r="H2" s="61">
+        <v>7</v>
       </c>
       <c r="I2" s="62">
         <v>0</v>
       </c>
-      <c r="J2" s="63">
+      <c r="J2" s="62">
         <v>0</v>
       </c>
-      <c r="K2" s="57" t="s">
-        <v>465</v>
-      </c>
-      <c r="M2" s="57">
+      <c r="K2" s="63">
+        <v>2</v>
+      </c>
+      <c r="L2" s="68" t="s">
+        <v>500</v>
+      </c>
+      <c r="N2" s="57">
         <v>1</v>
       </c>
-      <c r="N2" s="57" t="s">
-        <v>465</v>
-      </c>
-      <c r="O2" s="57">
-        <v>1</v>
+      <c r="O2" s="57" t="s">
+        <v>460</v>
       </c>
       <c r="P2" s="57" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="Q2" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="R2" s="57">
+        <v>0</v>
+      </c>
+      <c r="S2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="57" t="s">
-        <v>467</v>
-      </c>
-      <c r="S2" s="57">
+      <c r="T2" s="57" t="s">
+        <v>461</v>
+      </c>
+      <c r="U2" s="57">
         <v>10</v>
       </c>
-      <c r="T2" s="57" t="s">
+      <c r="V2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="57" t="s">
+      <c r="W2" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="57">
+      <c r="X2" s="57">
         <v>10</v>
       </c>
-      <c r="W2" s="57" t="s">
+      <c r="Y2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="57" t="s">
+      <c r="Z2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" s="57">
+      <c r="AA2" s="57">
         <v>10</v>
       </c>
-      <c r="Z2" s="57" t="s">
+      <c r="AB2" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="57" t="s">
+      <c r="AC2" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="AB2" s="57">
+      <c r="AD2" s="57">
         <v>10</v>
       </c>
-      <c r="AC2" s="57">
+      <c r="AE2" s="57">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:31">
       <c r="A3" s="57">
         <v>2</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>468</v>
-      </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" spans="1:29">
+        <v>462</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>495</v>
+      </c>
+      <c r="E3" s="57">
+        <v>67</v>
+      </c>
+      <c r="F3" s="57">
+        <v>1</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>459</v>
+      </c>
+      <c r="H3" s="61">
+        <v>11</v>
+      </c>
+      <c r="I3" s="62">
+        <v>0</v>
+      </c>
+      <c r="J3" s="62">
+        <v>0</v>
+      </c>
+      <c r="K3" s="63">
+        <v>3</v>
+      </c>
+      <c r="L3" s="68" t="s">
+        <v>500</v>
+      </c>
+      <c r="N3" s="57">
+        <v>1</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>506</v>
+      </c>
+      <c r="P3" s="57" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q3" s="57">
+        <v>67</v>
+      </c>
+      <c r="R3" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="57">
         <v>3</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>469</v>
-      </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
-    </row>
-    <row r="5" spans="1:29">
+        <v>463</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="E4" s="57">
+        <v>67</v>
+      </c>
+      <c r="F4" s="57">
+        <v>2</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>459</v>
+      </c>
+      <c r="H4" s="61">
+        <v>17</v>
+      </c>
+      <c r="I4" s="62">
+        <v>0</v>
+      </c>
+      <c r="J4" s="62">
+        <v>0</v>
+      </c>
+      <c r="K4" s="63">
+        <v>5</v>
+      </c>
+      <c r="L4" s="68" t="s">
+        <v>500</v>
+      </c>
+      <c r="N4" s="57">
+        <v>1</v>
+      </c>
+      <c r="O4" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="P4" s="57" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q4" s="57">
+        <v>67</v>
+      </c>
+      <c r="R4" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="57">
         <v>4</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>470</v>
-      </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
-    </row>
-    <row r="6" spans="1:29">
+        <v>464</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>420</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>497</v>
+      </c>
+      <c r="E5" s="57">
+        <v>67</v>
+      </c>
+      <c r="F5" s="57">
+        <v>3</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>459</v>
+      </c>
+      <c r="H5" s="61">
+        <v>25</v>
+      </c>
+      <c r="I5" s="62">
+        <v>0</v>
+      </c>
+      <c r="J5" s="62">
+        <v>0</v>
+      </c>
+      <c r="K5" s="63">
+        <v>8</v>
+      </c>
+      <c r="L5" s="68" t="s">
+        <v>500</v>
+      </c>
+      <c r="N5" s="57">
+        <v>1</v>
+      </c>
+      <c r="O5" s="57" t="s">
+        <v>505</v>
+      </c>
+      <c r="P5" s="57" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q5" s="57">
+        <v>67</v>
+      </c>
+      <c r="R5" s="57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="57">
         <v>5</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>471</v>
-      </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
+        <v>465</v>
+      </c>
+      <c r="E6" s="57">
+        <v>167</v>
+      </c>
+      <c r="F6" s="57">
+        <v>0</v>
+      </c>
+      <c r="H6" s="61"/>
       <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
-    </row>
-    <row r="7" spans="1:29">
+      <c r="J6" s="62"/>
+      <c r="K6" s="63"/>
+      <c r="N6" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="57">
+        <v>167</v>
+      </c>
+      <c r="R6" s="57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="57">
         <v>6</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>472</v>
-      </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
+        <v>466</v>
+      </c>
+      <c r="E7" s="57">
+        <v>167</v>
+      </c>
+      <c r="F7" s="57">
+        <v>1</v>
+      </c>
+      <c r="H7" s="61"/>
       <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
-    </row>
-    <row r="8" spans="1:29">
+      <c r="J7" s="62"/>
+      <c r="K7" s="63"/>
+      <c r="N7" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="57">
+        <v>167</v>
+      </c>
+      <c r="R7" s="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="57">
         <v>7</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>473</v>
-      </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="62"/>
+        <v>467</v>
+      </c>
+      <c r="E8" s="57">
+        <v>167</v>
+      </c>
+      <c r="F8" s="57">
+        <v>2</v>
+      </c>
+      <c r="H8" s="61"/>
       <c r="I8" s="62"/>
-      <c r="J8" s="63"/>
-    </row>
-    <row r="9" spans="1:29">
+      <c r="J8" s="62"/>
+      <c r="K8" s="63"/>
+      <c r="N8" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="57">
+        <v>167</v>
+      </c>
+      <c r="R8" s="57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="57">
         <v>8</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>474</v>
-      </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
+        <v>468</v>
+      </c>
+      <c r="E9" s="57">
+        <v>167</v>
+      </c>
+      <c r="F9" s="57">
+        <v>3</v>
+      </c>
+      <c r="H9" s="61"/>
       <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
-    </row>
-    <row r="10" spans="1:29">
+      <c r="J9" s="62"/>
+      <c r="K9" s="63"/>
+      <c r="N9" s="57">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="57">
+        <v>167</v>
+      </c>
+      <c r="R9" s="57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="57">
         <v>9</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>475</v>
-      </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
+        <v>469</v>
+      </c>
+      <c r="H10" s="61"/>
       <c r="I10" s="62"/>
-      <c r="J10" s="63"/>
-    </row>
-    <row r="11" spans="1:29">
+      <c r="J10" s="62"/>
+      <c r="K10" s="63"/>
+      <c r="N10" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="57">
         <v>10</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>476</v>
-      </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
+        <v>470</v>
+      </c>
+      <c r="H11" s="61"/>
       <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
-    </row>
-    <row r="12" spans="1:29">
+      <c r="J11" s="62"/>
+      <c r="K11" s="63"/>
+      <c r="N11" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="57">
         <v>11</v>
       </c>
       <c r="B12" s="57" t="s">
-        <v>477</v>
-      </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
+        <v>471</v>
+      </c>
+      <c r="H12" s="61"/>
       <c r="I12" s="62"/>
-      <c r="J12" s="63"/>
-    </row>
-    <row r="13" spans="1:29">
+      <c r="J12" s="62"/>
+      <c r="K12" s="63"/>
+      <c r="N12" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="57">
         <v>12</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>478</v>
-      </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
+        <v>472</v>
+      </c>
+      <c r="H13" s="61"/>
       <c r="I13" s="62"/>
-      <c r="J13" s="63"/>
-    </row>
-    <row r="14" spans="1:29">
+      <c r="J13" s="62"/>
+      <c r="K13" s="63"/>
+      <c r="N13" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="57">
         <v>13</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>479</v>
-      </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="62"/>
+        <v>473</v>
+      </c>
+      <c r="H14" s="61"/>
       <c r="I14" s="62"/>
-      <c r="J14" s="63"/>
-    </row>
-    <row r="15" spans="1:29">
+      <c r="J14" s="62"/>
+      <c r="K14" s="63"/>
+      <c r="N14" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="57">
         <v>14</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>480</v>
-      </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
+        <v>474</v>
+      </c>
+      <c r="H15" s="61"/>
       <c r="I15" s="62"/>
-      <c r="J15" s="63"/>
-    </row>
-    <row r="16" spans="1:29">
+      <c r="J15" s="62"/>
+      <c r="K15" s="63"/>
+      <c r="N15" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="57">
         <v>15</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>481</v>
-      </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62"/>
+        <v>475</v>
+      </c>
+      <c r="H16" s="61"/>
       <c r="I16" s="62"/>
-      <c r="J16" s="63"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
+      <c r="N16" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="57">
         <v>16</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>482</v>
-      </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="62"/>
+        <v>476</v>
+      </c>
+      <c r="H17" s="61"/>
       <c r="I17" s="62"/>
-      <c r="J17" s="63"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17" s="62"/>
+      <c r="K17" s="63"/>
+      <c r="N17" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="57">
         <v>17</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>483</v>
-      </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
+        <v>477</v>
+      </c>
+      <c r="H18" s="61"/>
       <c r="I18" s="62"/>
-      <c r="J18" s="63"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
+      <c r="N18" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="57">
         <v>18</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>484</v>
-      </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="62"/>
+        <v>478</v>
+      </c>
+      <c r="H19" s="61"/>
       <c r="I19" s="62"/>
-      <c r="J19" s="63"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="J19" s="62"/>
+      <c r="K19" s="63"/>
+      <c r="N19" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="57">
         <v>19</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>485</v>
-      </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="62"/>
+        <v>479</v>
+      </c>
+      <c r="H20" s="61"/>
       <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="J20" s="62"/>
+      <c r="K20" s="63"/>
+      <c r="N20" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="57">
         <v>20</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>486</v>
-      </c>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
+        <v>480</v>
+      </c>
+      <c r="H21" s="61"/>
       <c r="I21" s="62"/>
-      <c r="J21" s="63"/>
-    </row>
-    <row r="22" spans="1:10" ht="12" thickBot="1">
+      <c r="J21" s="62"/>
+      <c r="K21" s="63"/>
+      <c r="N21" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="12" thickBot="1">
       <c r="A22" s="57">
         <v>21</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>487</v>
-      </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
+        <v>481</v>
+      </c>
+      <c r="H22" s="64"/>
       <c r="I22" s="65"/>
-      <c r="J22" s="66"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66"/>
+      <c r="N22" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="N23" s="57">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -10650,7 +10929,7 @@
         <v>65</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M14" s="17">
         <v>2</v>
@@ -10697,7 +10976,7 @@
         <v>65</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M15" s="17">
         <v>2</v>

--- a/Doc/XmlDataDocument_170515_장비추가.xlsx
+++ b/Doc/XmlDataDocument_170515_장비추가.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020" activeTab="2"/>
+    <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Consumable" sheetId="7" r:id="rId1"/>
     <sheet name="Research" sheetId="5" r:id="rId2"/>
     <sheet name="Elemental" sheetId="3" r:id="rId3"/>
-    <sheet name="장비아이템" sheetId="8" r:id="rId4"/>
-    <sheet name="Talent" sheetId="6" r:id="rId5"/>
+    <sheet name="Talent" sheetId="6" r:id="rId4"/>
+    <sheet name="장비아이템" sheetId="8" r:id="rId5"/>
+    <sheet name="장비스킬" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="599">
   <si>
     <t>hero</t>
   </si>
@@ -1812,26 +1813,470 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LPriceReduceXH</t>
+  </si>
+  <si>
+    <t>RPriceReduceXH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DpcIncreaseXH</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>E07</t>
+  </si>
+  <si>
+    <t>E08</t>
+  </si>
+  <si>
+    <t>E09</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>E20</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>검술연마6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검술연마7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 화염구7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비법 : 각얼음5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>R40</t>
+  </si>
+  <si>
+    <t>R41</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>원소를 부여해 검술을 강화합니다. \n기본공격력 2.08 &gt; 3.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원소를 부여해 검술을 강화합니다. \n기본공격력 3.25 &gt; 4.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원소를 부여해 검술을 강화합니다. \n기본공격력 4.55 &gt; 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES02</t>
+  </si>
+  <si>
+    <t>마력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드랍맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES03</t>
+  </si>
+  <si>
+    <t>ES04</t>
+  </si>
+  <si>
+    <t>ES05</t>
+  </si>
+  <si>
+    <t>ES06</t>
+  </si>
+  <si>
+    <t>ES07</t>
+  </si>
+  <si>
+    <t>ES08</t>
+  </si>
+  <si>
+    <t>ES09</t>
+  </si>
+  <si>
+    <t>ES10</t>
+  </si>
+  <si>
+    <t>ES11</t>
+  </si>
+  <si>
+    <t>ES12</t>
+  </si>
+  <si>
+    <t>ES13</t>
+  </si>
+  <si>
+    <t>ES14</t>
+  </si>
+  <si>
+    <t>ES15</t>
+  </si>
+  <si>
+    <t>ES16</t>
+  </si>
+  <si>
+    <t>ES17</t>
+  </si>
+  <si>
+    <t>ES18</t>
+  </si>
+  <si>
+    <t>ES19</t>
+  </si>
+  <si>
+    <t>ES20</t>
+  </si>
+  <si>
+    <t>ES21</t>
+  </si>
+  <si>
+    <t>ES22</t>
+  </si>
+  <si>
+    <t>ES23</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>E23</t>
+  </si>
+  <si>
+    <t>E24</t>
+  </si>
+  <si>
+    <t>노멀검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES24</t>
+  </si>
+  <si>
+    <t>추천능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드랍레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>힘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LPriceReduceXH</t>
-  </si>
-  <si>
-    <t>RPriceReduceXH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_05</t>
+    <t>운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닠검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀스탭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직스탭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어스탭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닠스탭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니크링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀장검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직장검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어장검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닉장검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀롱스탭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직롱스탭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어롱스탭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닠롱스탭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀이어링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매직이어링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어이어링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닠이어링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1839,23 +2284,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장비아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부위</t>
+    <t>아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1863,6 +2292,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>등장부위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드랍맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드랍레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>대상1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1911,11 +2352,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장검</t>
+    <t>ES01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소드맨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1923,173 +2364,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소드맨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DpcIncreaseXH</t>
-  </si>
-  <si>
-    <t>E02</t>
-  </si>
-  <si>
-    <t>E03</t>
-  </si>
-  <si>
-    <t>E04</t>
-  </si>
-  <si>
-    <t>E05</t>
-  </si>
-  <si>
-    <t>E06</t>
-  </si>
-  <si>
-    <t>E07</t>
-  </si>
-  <si>
-    <t>E08</t>
-  </si>
-  <si>
-    <t>E09</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>E13</t>
-  </si>
-  <si>
-    <t>E14</t>
-  </si>
-  <si>
-    <t>E15</t>
-  </si>
-  <si>
-    <t>E16</t>
-  </si>
-  <si>
-    <t>E17</t>
-  </si>
-  <si>
-    <t>E18</t>
-  </si>
-  <si>
-    <t>E19</t>
-  </si>
-  <si>
-    <t>E20</t>
-  </si>
-  <si>
-    <t>E21</t>
-  </si>
-  <si>
-    <t>검술연마6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검술연마7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비법 : 화염구7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비법 : 각얼음5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R39</t>
-  </si>
-  <si>
-    <t>R40</t>
-  </si>
-  <si>
-    <t>R41</t>
-  </si>
-  <si>
-    <t>R42</t>
-  </si>
-  <si>
-    <t>R43</t>
-  </si>
-  <si>
-    <t>원소를 부여해 검술을 강화합니다. \n기본공격력 2.08 &gt; 3.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원소를 부여해 검술을 강화합니다. \n기본공격력 3.25 &gt; 4.55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원소를 부여해 검술을 강화합니다. \n기본공격력 4.55 &gt; 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매직장검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레어장검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유닠장검</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0에서3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드랍레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등장부위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레어소드맨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유닠소드맨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매직소드맨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67(의0.7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67(의0.3)</t>
+    <t>hero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서릿발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쾌속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급소드맨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급서릿발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급현자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스텟(절반능력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체능력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부분능력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당시e갯수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강력함등급</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2099,9 +2434,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2165,8 +2500,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2215,22 +2558,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2371,19 +2711,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2444,28 +2771,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2544,7 +2849,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -2586,25 +2891,25 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -2613,73 +2918,73 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6065,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -6206,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -6492,7 +6797,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>421</v>
@@ -6547,7 +6852,7 @@
         <v>422</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="I13" s="22">
         <v>0</v>
@@ -6596,7 +6901,7 @@
         <v>423</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="I14" s="22">
         <v>0</v>
@@ -6639,13 +6944,13 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>424</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="I15" s="22">
         <v>0</v>
@@ -6959,7 +7264,7 @@
         <v>369</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="H21" s="1" t="str">
         <f>CONCATENATE("기본공격의 공격력이 ",Research!$P21,"배 증가합니다.")</f>
@@ -6989,7 +7294,7 @@
       <c r="P21" s="22">
         <v>9</v>
       </c>
-      <c r="Q21" s="67"/>
+      <c r="Q21" s="51"/>
     </row>
     <row r="22" spans="1:17" s="22" customFormat="1">
       <c r="A22" s="1" t="s">
@@ -7012,7 +7317,7 @@
         <v>369</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="H22" s="1" t="str">
         <f>CONCATENATE("기본공격의 공격력이 ",Research!$P22,"배 증가합니다.")</f>
@@ -7042,7 +7347,7 @@
       <c r="P22" s="22">
         <v>10</v>
       </c>
-      <c r="Q22" s="67"/>
+      <c r="Q22" s="51"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
@@ -7383,7 +7688,7 @@
         <v>369</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="H29" s="1" t="str">
         <f>CONCATENATE("화염구의 공격력이 ",Research!$P29,"배 증가합니다.")</f>
@@ -7413,7 +7718,7 @@
       <c r="P29" s="22">
         <v>13</v>
       </c>
-      <c r="Q29" s="67"/>
+      <c r="Q29" s="51"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
@@ -7648,7 +7953,7 @@
         <v>369</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
       <c r="H34" s="1" t="str">
         <f>CONCATENATE("각얼음의 공격력이 ",Research!$P34,"배 증가합니다.")</f>
@@ -7947,7 +8252,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>18</v>
@@ -8000,7 +8305,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>188</v>
@@ -8053,7 +8358,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>0</v>
@@ -8105,7 +8410,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>0</v>
@@ -8157,7 +8462,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>0</v>
@@ -8902,7 +9207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -9603,678 +9908,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE23"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="16384" width="8.625" style="57"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" s="51" customFormat="1" ht="12" thickBot="1">
-      <c r="A1" s="51" t="s">
-        <v>438</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>439</v>
-      </c>
-      <c r="C1" s="51" t="s">
-        <v>440</v>
-      </c>
-      <c r="D1" s="51" t="s">
-        <v>441</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>501</v>
-      </c>
-      <c r="F1" s="51" t="s">
-        <v>442</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>443</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>432</v>
-      </c>
-      <c r="I1" s="54" t="s">
-        <v>433</v>
-      </c>
-      <c r="J1" s="54" t="s">
-        <v>498</v>
-      </c>
-      <c r="K1" s="55" t="s">
-        <v>499</v>
-      </c>
-      <c r="L1" s="56" t="s">
-        <v>494</v>
-      </c>
-      <c r="M1" s="57"/>
-      <c r="N1" s="51" t="s">
-        <v>438</v>
-      </c>
-      <c r="O1" s="52" t="s">
-        <v>444</v>
-      </c>
-      <c r="P1" s="52" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q1" s="52" t="s">
-        <v>501</v>
-      </c>
-      <c r="R1" s="51" t="s">
-        <v>494</v>
-      </c>
-      <c r="S1" s="58" t="s">
-        <v>445</v>
-      </c>
-      <c r="T1" s="59" t="s">
-        <v>446</v>
-      </c>
-      <c r="U1" s="60" t="s">
-        <v>447</v>
-      </c>
-      <c r="V1" s="58" t="s">
-        <v>448</v>
-      </c>
-      <c r="W1" s="59" t="s">
-        <v>449</v>
-      </c>
-      <c r="X1" s="60" t="s">
-        <v>450</v>
-      </c>
-      <c r="Y1" s="58" t="s">
-        <v>451</v>
-      </c>
-      <c r="Z1" s="59" t="s">
-        <v>452</v>
-      </c>
-      <c r="AA1" s="60" t="s">
-        <v>453</v>
-      </c>
-      <c r="AB1" s="58" t="s">
-        <v>454</v>
-      </c>
-      <c r="AC1" s="59" t="s">
-        <v>455</v>
-      </c>
-      <c r="AD1" s="60" t="s">
-        <v>456</v>
-      </c>
-      <c r="AE1" s="60" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="57">
-        <v>1</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>458</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>507</v>
-      </c>
-      <c r="F2" s="57">
-        <v>0</v>
-      </c>
-      <c r="G2" s="57" t="s">
-        <v>459</v>
-      </c>
-      <c r="H2" s="61">
-        <v>7</v>
-      </c>
-      <c r="I2" s="62">
-        <v>0</v>
-      </c>
-      <c r="J2" s="62">
-        <v>0</v>
-      </c>
-      <c r="K2" s="63">
-        <v>2</v>
-      </c>
-      <c r="L2" s="68" t="s">
-        <v>500</v>
-      </c>
-      <c r="N2" s="57">
-        <v>1</v>
-      </c>
-      <c r="O2" s="57" t="s">
-        <v>460</v>
-      </c>
-      <c r="P2" s="57" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q2" s="57" t="s">
-        <v>508</v>
-      </c>
-      <c r="R2" s="57">
-        <v>0</v>
-      </c>
-      <c r="S2" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="T2" s="57" t="s">
-        <v>461</v>
-      </c>
-      <c r="U2" s="57">
-        <v>10</v>
-      </c>
-      <c r="V2" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="X2" s="57">
-        <v>10</v>
-      </c>
-      <c r="Y2" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z2" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" s="57">
-        <v>10</v>
-      </c>
-      <c r="AB2" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC2" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="AD2" s="57">
-        <v>10</v>
-      </c>
-      <c r="AE2" s="57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="57">
-        <v>2</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>462</v>
-      </c>
-      <c r="C3" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>495</v>
-      </c>
-      <c r="E3" s="57">
-        <v>67</v>
-      </c>
-      <c r="F3" s="57">
-        <v>1</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>459</v>
-      </c>
-      <c r="H3" s="61">
-        <v>11</v>
-      </c>
-      <c r="I3" s="62">
-        <v>0</v>
-      </c>
-      <c r="J3" s="62">
-        <v>0</v>
-      </c>
-      <c r="K3" s="63">
-        <v>3</v>
-      </c>
-      <c r="L3" s="68" t="s">
-        <v>500</v>
-      </c>
-      <c r="N3" s="57">
-        <v>1</v>
-      </c>
-      <c r="O3" s="57" t="s">
-        <v>506</v>
-      </c>
-      <c r="P3" s="57" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q3" s="57">
-        <v>67</v>
-      </c>
-      <c r="R3" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="57">
-        <v>3</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>463</v>
-      </c>
-      <c r="C4" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>496</v>
-      </c>
-      <c r="E4" s="57">
-        <v>67</v>
-      </c>
-      <c r="F4" s="57">
-        <v>2</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>459</v>
-      </c>
-      <c r="H4" s="61">
-        <v>17</v>
-      </c>
-      <c r="I4" s="62">
-        <v>0</v>
-      </c>
-      <c r="J4" s="62">
-        <v>0</v>
-      </c>
-      <c r="K4" s="63">
-        <v>5</v>
-      </c>
-      <c r="L4" s="68" t="s">
-        <v>500</v>
-      </c>
-      <c r="N4" s="57">
-        <v>1</v>
-      </c>
-      <c r="O4" s="57" t="s">
-        <v>504</v>
-      </c>
-      <c r="P4" s="57" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q4" s="57">
-        <v>67</v>
-      </c>
-      <c r="R4" s="57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
-      <c r="A5" s="57">
-        <v>4</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>464</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>420</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>497</v>
-      </c>
-      <c r="E5" s="57">
-        <v>67</v>
-      </c>
-      <c r="F5" s="57">
-        <v>3</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>459</v>
-      </c>
-      <c r="H5" s="61">
-        <v>25</v>
-      </c>
-      <c r="I5" s="62">
-        <v>0</v>
-      </c>
-      <c r="J5" s="62">
-        <v>0</v>
-      </c>
-      <c r="K5" s="63">
-        <v>8</v>
-      </c>
-      <c r="L5" s="68" t="s">
-        <v>500</v>
-      </c>
-      <c r="N5" s="57">
-        <v>1</v>
-      </c>
-      <c r="O5" s="57" t="s">
-        <v>505</v>
-      </c>
-      <c r="P5" s="57" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q5" s="57">
-        <v>67</v>
-      </c>
-      <c r="R5" s="57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="57">
-        <v>5</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>465</v>
-      </c>
-      <c r="E6" s="57">
-        <v>167</v>
-      </c>
-      <c r="F6" s="57">
-        <v>0</v>
-      </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63"/>
-      <c r="N6" s="57">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="57">
-        <v>167</v>
-      </c>
-      <c r="R6" s="57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="57">
-        <v>6</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>466</v>
-      </c>
-      <c r="E7" s="57">
-        <v>167</v>
-      </c>
-      <c r="F7" s="57">
-        <v>1</v>
-      </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="63"/>
-      <c r="N7" s="57">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="57">
-        <v>167</v>
-      </c>
-      <c r="R7" s="57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="57">
-        <v>7</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>467</v>
-      </c>
-      <c r="E8" s="57">
-        <v>167</v>
-      </c>
-      <c r="F8" s="57">
-        <v>2</v>
-      </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="63"/>
-      <c r="N8" s="57">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="57">
-        <v>167</v>
-      </c>
-      <c r="R8" s="57">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="57">
-        <v>8</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>468</v>
-      </c>
-      <c r="E9" s="57">
-        <v>167</v>
-      </c>
-      <c r="F9" s="57">
-        <v>3</v>
-      </c>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="63"/>
-      <c r="N9" s="57">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="57">
-        <v>167</v>
-      </c>
-      <c r="R9" s="57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10" s="57">
-        <v>9</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>469</v>
-      </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="63"/>
-      <c r="N10" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11" s="57">
-        <v>10</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>470</v>
-      </c>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
-      <c r="N11" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="57">
-        <v>11</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>471</v>
-      </c>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
-      <c r="N12" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="57">
-        <v>12</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>472</v>
-      </c>
-      <c r="H13" s="61"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="63"/>
-      <c r="N13" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14" s="57">
-        <v>13</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>473</v>
-      </c>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="63"/>
-      <c r="N14" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" s="57">
-        <v>14</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>474</v>
-      </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="63"/>
-      <c r="N15" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="57">
-        <v>15</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>475</v>
-      </c>
-      <c r="H16" s="61"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="63"/>
-      <c r="N16" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="57">
-        <v>16</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>476</v>
-      </c>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="63"/>
-      <c r="N17" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="57">
-        <v>17</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>477</v>
-      </c>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="63"/>
-      <c r="N18" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="57">
-        <v>18</v>
-      </c>
-      <c r="B19" s="57" t="s">
-        <v>478</v>
-      </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="63"/>
-      <c r="N19" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="57">
-        <v>19</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>479</v>
-      </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="63"/>
-      <c r="N20" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="57">
-        <v>20</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>480</v>
-      </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="63"/>
-      <c r="N21" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="12" thickBot="1">
-      <c r="A22" s="57">
-        <v>21</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>481</v>
-      </c>
-      <c r="H22" s="64"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="66"/>
-      <c r="N22" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="N23" s="57">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q30"/>
   <sheetViews>
@@ -10929,7 +10562,7 @@
         <v>65</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M14" s="17">
         <v>2</v>
@@ -10976,7 +10609,7 @@
         <v>65</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M15" s="17">
         <v>2</v>
@@ -11303,4 +10936,2124 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.625" style="59"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="53" customFormat="1">
+      <c r="A1" s="52" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>436</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>475</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>506</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>437</v>
+      </c>
+      <c r="H1" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>507</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>508</v>
+      </c>
+      <c r="L1" s="57" t="s">
+        <v>509</v>
+      </c>
+      <c r="M1" s="58" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="59">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>510</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>511</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" s="59">
+        <v>67</v>
+      </c>
+      <c r="G2" s="59">
+        <v>0</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="I2" s="60">
+        <v>5</v>
+      </c>
+      <c r="J2" s="61">
+        <v>0</v>
+      </c>
+      <c r="K2" s="61">
+        <v>0</v>
+      </c>
+      <c r="L2" s="62">
+        <v>0</v>
+      </c>
+      <c r="M2" s="59">
+        <f>ROUND(F2/9*0.7*POWER(1.5,G2),0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="59">
+        <v>2</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>512</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>513</v>
+      </c>
+      <c r="F3" s="59">
+        <v>67</v>
+      </c>
+      <c r="G3" s="59">
+        <v>1</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>514</v>
+      </c>
+      <c r="I3" s="60">
+        <v>8</v>
+      </c>
+      <c r="J3" s="61">
+        <v>0</v>
+      </c>
+      <c r="K3" s="61">
+        <v>0</v>
+      </c>
+      <c r="L3" s="62">
+        <v>0</v>
+      </c>
+      <c r="M3" s="59">
+        <f t="shared" ref="M3:M25" si="0">ROUND(F3/9*0.7*POWER(1.5,G3),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="59">
+        <v>3</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>515</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>516</v>
+      </c>
+      <c r="F4" s="59">
+        <v>67</v>
+      </c>
+      <c r="G4" s="59">
+        <v>2</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>517</v>
+      </c>
+      <c r="I4" s="60">
+        <v>12</v>
+      </c>
+      <c r="J4" s="61">
+        <v>0</v>
+      </c>
+      <c r="K4" s="61">
+        <v>0</v>
+      </c>
+      <c r="L4" s="62">
+        <v>0</v>
+      </c>
+      <c r="M4" s="59">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="59">
+        <v>4</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>518</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>519</v>
+      </c>
+      <c r="F5" s="59">
+        <v>67</v>
+      </c>
+      <c r="G5" s="59">
+        <v>3</v>
+      </c>
+      <c r="H5" s="59" t="s">
+        <v>520</v>
+      </c>
+      <c r="I5" s="60">
+        <v>18</v>
+      </c>
+      <c r="J5" s="61">
+        <v>0</v>
+      </c>
+      <c r="K5" s="61">
+        <v>0</v>
+      </c>
+      <c r="L5" s="62">
+        <v>0</v>
+      </c>
+      <c r="M5" s="59">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="59">
+        <v>5</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>444</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>521</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>522</v>
+      </c>
+      <c r="F6" s="59">
+        <v>67</v>
+      </c>
+      <c r="G6" s="59">
+        <v>0</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>523</v>
+      </c>
+      <c r="I6" s="61">
+        <v>0</v>
+      </c>
+      <c r="J6" s="60">
+        <v>5</v>
+      </c>
+      <c r="K6" s="61">
+        <v>0</v>
+      </c>
+      <c r="L6" s="62">
+        <v>0</v>
+      </c>
+      <c r="M6" s="59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="59">
+        <v>6</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>524</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>525</v>
+      </c>
+      <c r="F7" s="59">
+        <v>67</v>
+      </c>
+      <c r="G7" s="59">
+        <v>1</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>526</v>
+      </c>
+      <c r="I7" s="61">
+        <v>0</v>
+      </c>
+      <c r="J7" s="60">
+        <v>8</v>
+      </c>
+      <c r="K7" s="61">
+        <v>0</v>
+      </c>
+      <c r="L7" s="62">
+        <v>0</v>
+      </c>
+      <c r="M7" s="59">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="59">
+        <v>7</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>527</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>528</v>
+      </c>
+      <c r="F8" s="59">
+        <v>67</v>
+      </c>
+      <c r="G8" s="59">
+        <v>2</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>529</v>
+      </c>
+      <c r="I8" s="61">
+        <v>0</v>
+      </c>
+      <c r="J8" s="60">
+        <v>12</v>
+      </c>
+      <c r="K8" s="61">
+        <v>0</v>
+      </c>
+      <c r="L8" s="62">
+        <v>0</v>
+      </c>
+      <c r="M8" s="59">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="59">
+        <v>8</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>530</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>531</v>
+      </c>
+      <c r="F9" s="59">
+        <v>67</v>
+      </c>
+      <c r="G9" s="59">
+        <v>3</v>
+      </c>
+      <c r="H9" s="59" t="s">
+        <v>532</v>
+      </c>
+      <c r="I9" s="61">
+        <v>0</v>
+      </c>
+      <c r="J9" s="60">
+        <v>18</v>
+      </c>
+      <c r="K9" s="61">
+        <v>0</v>
+      </c>
+      <c r="L9" s="62">
+        <v>0</v>
+      </c>
+      <c r="M9" s="59">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="59">
+        <v>9</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>534</v>
+      </c>
+      <c r="F10" s="59">
+        <v>67</v>
+      </c>
+      <c r="G10" s="59">
+        <v>0</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>535</v>
+      </c>
+      <c r="I10" s="61">
+        <v>0</v>
+      </c>
+      <c r="J10" s="61">
+        <v>0</v>
+      </c>
+      <c r="K10" s="60">
+        <v>5</v>
+      </c>
+      <c r="L10" s="62">
+        <v>0</v>
+      </c>
+      <c r="M10" s="59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="59">
+        <v>10</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>537</v>
+      </c>
+      <c r="F11" s="59">
+        <v>67</v>
+      </c>
+      <c r="G11" s="59">
+        <v>1</v>
+      </c>
+      <c r="H11" s="59" t="s">
+        <v>538</v>
+      </c>
+      <c r="I11" s="61">
+        <v>0</v>
+      </c>
+      <c r="J11" s="61">
+        <v>0</v>
+      </c>
+      <c r="K11" s="60">
+        <v>8</v>
+      </c>
+      <c r="L11" s="62">
+        <v>0</v>
+      </c>
+      <c r="M11" s="59">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="59">
+        <v>11</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>540</v>
+      </c>
+      <c r="F12" s="59">
+        <v>67</v>
+      </c>
+      <c r="G12" s="59">
+        <v>2</v>
+      </c>
+      <c r="H12" s="59" t="s">
+        <v>541</v>
+      </c>
+      <c r="I12" s="61">
+        <v>0</v>
+      </c>
+      <c r="J12" s="61">
+        <v>0</v>
+      </c>
+      <c r="K12" s="60">
+        <v>12</v>
+      </c>
+      <c r="L12" s="62">
+        <v>0</v>
+      </c>
+      <c r="M12" s="59">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="59">
+        <v>12</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>512</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>542</v>
+      </c>
+      <c r="F13" s="59">
+        <v>67</v>
+      </c>
+      <c r="G13" s="59">
+        <v>3</v>
+      </c>
+      <c r="H13" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="I13" s="61">
+        <v>0</v>
+      </c>
+      <c r="J13" s="61">
+        <v>0</v>
+      </c>
+      <c r="K13" s="60">
+        <v>18</v>
+      </c>
+      <c r="L13" s="62">
+        <v>0</v>
+      </c>
+      <c r="M13" s="59">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="59">
+        <v>101</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>452</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>515</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>544</v>
+      </c>
+      <c r="F14" s="59">
+        <v>167</v>
+      </c>
+      <c r="G14" s="59">
+        <v>0</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>517</v>
+      </c>
+      <c r="I14" s="60">
+        <v>13</v>
+      </c>
+      <c r="J14" s="61">
+        <v>0</v>
+      </c>
+      <c r="K14" s="61">
+        <v>0</v>
+      </c>
+      <c r="L14" s="62">
+        <v>0</v>
+      </c>
+      <c r="M14" s="59">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="59">
+        <v>102</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>518</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>545</v>
+      </c>
+      <c r="F15" s="59">
+        <v>167</v>
+      </c>
+      <c r="G15" s="59">
+        <v>1</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>520</v>
+      </c>
+      <c r="I15" s="60">
+        <v>19</v>
+      </c>
+      <c r="J15" s="61">
+        <v>0</v>
+      </c>
+      <c r="K15" s="61">
+        <v>0</v>
+      </c>
+      <c r="L15" s="62">
+        <v>0</v>
+      </c>
+      <c r="M15" s="59">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="59">
+        <v>103</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>454</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>521</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>546</v>
+      </c>
+      <c r="F16" s="59">
+        <v>167</v>
+      </c>
+      <c r="G16" s="59">
+        <v>2</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>547</v>
+      </c>
+      <c r="I16" s="60">
+        <v>29</v>
+      </c>
+      <c r="J16" s="61">
+        <v>0</v>
+      </c>
+      <c r="K16" s="61">
+        <v>0</v>
+      </c>
+      <c r="L16" s="62">
+        <v>0</v>
+      </c>
+      <c r="M16" s="59">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="59">
+        <v>104</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>455</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>524</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="F17" s="59">
+        <v>167</v>
+      </c>
+      <c r="G17" s="59">
+        <v>3</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="I17" s="60">
+        <v>44</v>
+      </c>
+      <c r="J17" s="61">
+        <v>0</v>
+      </c>
+      <c r="K17" s="61">
+        <v>0</v>
+      </c>
+      <c r="L17" s="62">
+        <v>0</v>
+      </c>
+      <c r="M17" s="59">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="59">
+        <v>105</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>527</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>550</v>
+      </c>
+      <c r="F18" s="59">
+        <v>167</v>
+      </c>
+      <c r="G18" s="59">
+        <v>0</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>529</v>
+      </c>
+      <c r="I18" s="61">
+        <v>0</v>
+      </c>
+      <c r="J18" s="60">
+        <v>13</v>
+      </c>
+      <c r="K18" s="61">
+        <v>0</v>
+      </c>
+      <c r="L18" s="62">
+        <v>0</v>
+      </c>
+      <c r="M18" s="59">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="59">
+        <v>106</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>457</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>530</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>551</v>
+      </c>
+      <c r="F19" s="59">
+        <v>167</v>
+      </c>
+      <c r="G19" s="59">
+        <v>1</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>532</v>
+      </c>
+      <c r="I19" s="61">
+        <v>0</v>
+      </c>
+      <c r="J19" s="60">
+        <v>19</v>
+      </c>
+      <c r="K19" s="61">
+        <v>0</v>
+      </c>
+      <c r="L19" s="62">
+        <v>0</v>
+      </c>
+      <c r="M19" s="59">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="59">
+        <v>107</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>458</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>533</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>552</v>
+      </c>
+      <c r="F20" s="59">
+        <v>167</v>
+      </c>
+      <c r="G20" s="59">
+        <v>2</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>553</v>
+      </c>
+      <c r="I20" s="61">
+        <v>0</v>
+      </c>
+      <c r="J20" s="60">
+        <v>29</v>
+      </c>
+      <c r="K20" s="61">
+        <v>0</v>
+      </c>
+      <c r="L20" s="62">
+        <v>0</v>
+      </c>
+      <c r="M20" s="59">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="59">
+        <v>108</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>459</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>536</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>554</v>
+      </c>
+      <c r="F21" s="59">
+        <v>167</v>
+      </c>
+      <c r="G21" s="59">
+        <v>3</v>
+      </c>
+      <c r="H21" s="59" t="s">
+        <v>555</v>
+      </c>
+      <c r="I21" s="61">
+        <v>0</v>
+      </c>
+      <c r="J21" s="60">
+        <v>44</v>
+      </c>
+      <c r="K21" s="61">
+        <v>0</v>
+      </c>
+      <c r="L21" s="62">
+        <v>0</v>
+      </c>
+      <c r="M21" s="59">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="59">
+        <v>109</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>460</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>539</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>556</v>
+      </c>
+      <c r="F22" s="59">
+        <v>167</v>
+      </c>
+      <c r="G22" s="59">
+        <v>0</v>
+      </c>
+      <c r="H22" s="59" t="s">
+        <v>541</v>
+      </c>
+      <c r="I22" s="61">
+        <v>0</v>
+      </c>
+      <c r="J22" s="61">
+        <v>0</v>
+      </c>
+      <c r="K22" s="60">
+        <v>13</v>
+      </c>
+      <c r="L22" s="62">
+        <v>0</v>
+      </c>
+      <c r="M22" s="59">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="59">
+        <v>110</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>497</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>512</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>557</v>
+      </c>
+      <c r="F23" s="59">
+        <v>167</v>
+      </c>
+      <c r="G23" s="59">
+        <v>1</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>543</v>
+      </c>
+      <c r="I23" s="61">
+        <v>0</v>
+      </c>
+      <c r="J23" s="61">
+        <v>0</v>
+      </c>
+      <c r="K23" s="60">
+        <v>19</v>
+      </c>
+      <c r="L23" s="62">
+        <v>0</v>
+      </c>
+      <c r="M23" s="59">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="59">
+        <v>111</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>498</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>515</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>558</v>
+      </c>
+      <c r="F24" s="59">
+        <v>167</v>
+      </c>
+      <c r="G24" s="59">
+        <v>2</v>
+      </c>
+      <c r="H24" s="59" t="s">
+        <v>559</v>
+      </c>
+      <c r="I24" s="61">
+        <v>0</v>
+      </c>
+      <c r="J24" s="61">
+        <v>0</v>
+      </c>
+      <c r="K24" s="60">
+        <v>29</v>
+      </c>
+      <c r="L24" s="62">
+        <v>0</v>
+      </c>
+      <c r="M24" s="59">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="59">
+        <v>112</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>499</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>518</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>560</v>
+      </c>
+      <c r="F25" s="59">
+        <v>167</v>
+      </c>
+      <c r="G25" s="59">
+        <v>3</v>
+      </c>
+      <c r="H25" s="59" t="s">
+        <v>561</v>
+      </c>
+      <c r="I25" s="61">
+        <v>0</v>
+      </c>
+      <c r="J25" s="61">
+        <v>0</v>
+      </c>
+      <c r="K25" s="60">
+        <v>44</v>
+      </c>
+      <c r="L25" s="62">
+        <v>0</v>
+      </c>
+      <c r="M25" s="59">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="19" width="9" style="59"/>
+    <col min="20" max="20" width="9.75" style="59" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.125" style="59" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.75" style="59" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="59"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="12" thickBot="1">
+      <c r="A1" s="52" t="s">
+        <v>562</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>565</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>566</v>
+      </c>
+      <c r="F1" s="54" t="s">
+        <v>567</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1" s="64" t="s">
+        <v>569</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>570</v>
+      </c>
+      <c r="J1" s="63" t="s">
+        <v>571</v>
+      </c>
+      <c r="K1" s="64" t="s">
+        <v>572</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>573</v>
+      </c>
+      <c r="M1" s="63" t="s">
+        <v>574</v>
+      </c>
+      <c r="N1" s="64" t="s">
+        <v>575</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>576</v>
+      </c>
+      <c r="P1" s="63" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q1" s="64" t="s">
+        <v>578</v>
+      </c>
+      <c r="R1" s="65" t="s">
+        <v>579</v>
+      </c>
+      <c r="S1" s="66" t="s">
+        <v>598</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>594</v>
+      </c>
+      <c r="U1" s="58" t="s">
+        <v>595</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>596</v>
+      </c>
+      <c r="W1" s="67" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="59">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>581</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>582</v>
+      </c>
+      <c r="F2" s="59">
+        <v>67</v>
+      </c>
+      <c r="G2" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="H2" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="I2" s="59">
+        <v>10</v>
+      </c>
+      <c r="J2" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="K2" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="59">
+        <v>10</v>
+      </c>
+      <c r="M2" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="N2" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="59">
+        <v>10</v>
+      </c>
+      <c r="P2" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q2" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" s="59">
+        <v>10</v>
+      </c>
+      <c r="S2" s="59">
+        <v>0</v>
+      </c>
+      <c r="T2" s="68">
+        <f>F2/9*0.3*POWER(1.5,S2)</f>
+        <v>2.2333333333333334</v>
+      </c>
+      <c r="U2" s="68">
+        <f>T2/2</f>
+        <v>1.1166666666666667</v>
+      </c>
+      <c r="V2" s="68">
+        <f>T2*W2</f>
+        <v>6.7</v>
+      </c>
+      <c r="W2" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="59">
+        <v>2</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>473</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>584</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>582</v>
+      </c>
+      <c r="F3" s="59">
+        <v>67</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="I3" s="59">
+        <v>10</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="59">
+        <v>10</v>
+      </c>
+      <c r="M3" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="N3" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" s="59">
+        <v>10</v>
+      </c>
+      <c r="P3" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q3" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" s="59">
+        <v>10</v>
+      </c>
+      <c r="S3" s="59">
+        <v>1</v>
+      </c>
+      <c r="T3" s="68">
+        <f>F3/9*0.3*POWER(1.5,S3)</f>
+        <v>3.35</v>
+      </c>
+      <c r="U3" s="68">
+        <f t="shared" ref="U3:U22" si="0">T3/2</f>
+        <v>1.675</v>
+      </c>
+      <c r="V3" s="68">
+        <f t="shared" ref="V3:V22" si="1">T3*W3</f>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="W3" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="59">
+        <v>3</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>585</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>582</v>
+      </c>
+      <c r="F4" s="59">
+        <v>67</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="I4" s="59">
+        <v>10</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="59">
+        <v>10</v>
+      </c>
+      <c r="M4" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="N4" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="59">
+        <v>10</v>
+      </c>
+      <c r="P4" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="R4" s="59">
+        <v>10</v>
+      </c>
+      <c r="S4" s="59">
+        <v>2</v>
+      </c>
+      <c r="T4" s="68">
+        <f>F4/9*0.3*POWER(1.5,S4)</f>
+        <v>5.0250000000000004</v>
+      </c>
+      <c r="U4" s="68">
+        <f t="shared" si="0"/>
+        <v>2.5125000000000002</v>
+      </c>
+      <c r="V4" s="68">
+        <f t="shared" si="1"/>
+        <v>15.075000000000001</v>
+      </c>
+      <c r="W4" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="59">
+        <v>4</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>477</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>582</v>
+      </c>
+      <c r="F5" s="59">
+        <v>67</v>
+      </c>
+      <c r="T5" s="68">
+        <f t="shared" ref="T5:T22" si="2">F5/9*0.3*POWER(1.5,S5)</f>
+        <v>2.2333333333333334</v>
+      </c>
+      <c r="U5" s="68">
+        <f t="shared" si="0"/>
+        <v>1.1166666666666667</v>
+      </c>
+      <c r="V5" s="68">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+      <c r="W5" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="59">
+        <v>5</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>478</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>586</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>587</v>
+      </c>
+      <c r="F6" s="59">
+        <v>67</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="I6" s="59">
+        <v>10</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="59">
+        <v>10</v>
+      </c>
+      <c r="M6" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="N6" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="59">
+        <v>10</v>
+      </c>
+      <c r="P6" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q6" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6" s="59">
+        <v>10</v>
+      </c>
+      <c r="S6" s="59">
+        <v>0</v>
+      </c>
+      <c r="T6" s="68">
+        <f t="shared" si="2"/>
+        <v>2.2333333333333334</v>
+      </c>
+      <c r="U6" s="68">
+        <f t="shared" si="0"/>
+        <v>1.1166666666666667</v>
+      </c>
+      <c r="V6" s="68">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+      <c r="W6" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="59">
+        <v>6</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>479</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>588</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>587</v>
+      </c>
+      <c r="F7" s="59">
+        <v>67</v>
+      </c>
+      <c r="G7" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="I7" s="59">
+        <v>10</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="K7" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="59">
+        <v>10</v>
+      </c>
+      <c r="M7" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="N7" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="59">
+        <v>10</v>
+      </c>
+      <c r="P7" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" s="59">
+        <v>10</v>
+      </c>
+      <c r="S7" s="59">
+        <v>1</v>
+      </c>
+      <c r="T7" s="68">
+        <f t="shared" si="2"/>
+        <v>3.35</v>
+      </c>
+      <c r="U7" s="68">
+        <f t="shared" si="0"/>
+        <v>1.675</v>
+      </c>
+      <c r="V7" s="68">
+        <f t="shared" si="1"/>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="W7" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="59">
+        <v>7</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>480</v>
+      </c>
+      <c r="D8" s="59" t="s">
+        <v>587</v>
+      </c>
+      <c r="F8" s="59">
+        <v>67</v>
+      </c>
+      <c r="T8" s="68">
+        <f t="shared" si="2"/>
+        <v>2.2333333333333334</v>
+      </c>
+      <c r="U8" s="68">
+        <f t="shared" si="0"/>
+        <v>1.1166666666666667</v>
+      </c>
+      <c r="V8" s="68">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+      <c r="W8" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="59">
+        <v>8</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>481</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>587</v>
+      </c>
+      <c r="F9" s="59">
+        <v>67</v>
+      </c>
+      <c r="T9" s="68">
+        <f t="shared" si="2"/>
+        <v>2.2333333333333334</v>
+      </c>
+      <c r="U9" s="68">
+        <f t="shared" si="0"/>
+        <v>1.1166666666666667</v>
+      </c>
+      <c r="V9" s="68">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+      <c r="W9" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="59">
+        <v>9</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>482</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>589</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>590</v>
+      </c>
+      <c r="F10" s="59">
+        <v>67</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="H10" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="I10" s="59">
+        <v>10</v>
+      </c>
+      <c r="J10" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="K10" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="59">
+        <v>10</v>
+      </c>
+      <c r="M10" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="N10" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10" s="59">
+        <v>10</v>
+      </c>
+      <c r="P10" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q10" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="R10" s="59">
+        <v>10</v>
+      </c>
+      <c r="S10" s="59">
+        <v>2</v>
+      </c>
+      <c r="T10" s="68">
+        <f t="shared" si="2"/>
+        <v>5.0250000000000004</v>
+      </c>
+      <c r="U10" s="68">
+        <f t="shared" si="0"/>
+        <v>2.5125000000000002</v>
+      </c>
+      <c r="V10" s="68">
+        <f t="shared" si="1"/>
+        <v>15.075000000000001</v>
+      </c>
+      <c r="W10" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="59">
+        <v>10</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>483</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>590</v>
+      </c>
+      <c r="F11" s="59">
+        <v>67</v>
+      </c>
+      <c r="T11" s="68">
+        <f t="shared" si="2"/>
+        <v>2.2333333333333334</v>
+      </c>
+      <c r="U11" s="68">
+        <f t="shared" si="0"/>
+        <v>1.1166666666666667</v>
+      </c>
+      <c r="V11" s="68">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+      <c r="W11" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="59">
+        <v>11</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="D12" s="59" t="s">
+        <v>590</v>
+      </c>
+      <c r="F12" s="59">
+        <v>67</v>
+      </c>
+      <c r="T12" s="68">
+        <f t="shared" si="2"/>
+        <v>2.2333333333333334</v>
+      </c>
+      <c r="U12" s="68">
+        <f t="shared" si="0"/>
+        <v>1.1166666666666667</v>
+      </c>
+      <c r="V12" s="68">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+      <c r="W12" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="59">
+        <v>12</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>485</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>590</v>
+      </c>
+      <c r="F13" s="59">
+        <v>67</v>
+      </c>
+      <c r="T13" s="68">
+        <f t="shared" si="2"/>
+        <v>2.2333333333333334</v>
+      </c>
+      <c r="U13" s="68">
+        <f t="shared" si="0"/>
+        <v>1.1166666666666667</v>
+      </c>
+      <c r="V13" s="68">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+      <c r="W13" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="59">
+        <v>101</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>486</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>591</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>582</v>
+      </c>
+      <c r="F14" s="59">
+        <v>167</v>
+      </c>
+      <c r="G14" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="I14" s="59">
+        <v>10</v>
+      </c>
+      <c r="J14" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="K14" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="59">
+        <v>10</v>
+      </c>
+      <c r="M14" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="N14" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" s="59">
+        <v>10</v>
+      </c>
+      <c r="P14" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q14" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="R14" s="59">
+        <v>10</v>
+      </c>
+      <c r="S14" s="59">
+        <v>3</v>
+      </c>
+      <c r="T14" s="68">
+        <f t="shared" si="2"/>
+        <v>18.787500000000001</v>
+      </c>
+      <c r="U14" s="68">
+        <f t="shared" si="0"/>
+        <v>9.3937500000000007</v>
+      </c>
+      <c r="V14" s="68">
+        <f t="shared" si="1"/>
+        <v>93.9375</v>
+      </c>
+      <c r="W14" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="59">
+        <v>102</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>487</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>582</v>
+      </c>
+      <c r="F15" s="59">
+        <v>167</v>
+      </c>
+      <c r="T15" s="68">
+        <f t="shared" si="2"/>
+        <v>5.5666666666666673</v>
+      </c>
+      <c r="U15" s="68">
+        <f t="shared" si="0"/>
+        <v>2.7833333333333337</v>
+      </c>
+      <c r="V15" s="68">
+        <f t="shared" si="1"/>
+        <v>27.833333333333336</v>
+      </c>
+      <c r="W15" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="59">
+        <v>103</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>488</v>
+      </c>
+      <c r="D16" s="59" t="s">
+        <v>582</v>
+      </c>
+      <c r="F16" s="59">
+        <v>167</v>
+      </c>
+      <c r="T16" s="68">
+        <f t="shared" si="2"/>
+        <v>5.5666666666666673</v>
+      </c>
+      <c r="U16" s="68">
+        <f t="shared" si="0"/>
+        <v>2.7833333333333337</v>
+      </c>
+      <c r="V16" s="68">
+        <f t="shared" si="1"/>
+        <v>27.833333333333336</v>
+      </c>
+      <c r="W16" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="59">
+        <v>104</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>489</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>582</v>
+      </c>
+      <c r="F17" s="59">
+        <v>167</v>
+      </c>
+      <c r="T17" s="68">
+        <f t="shared" si="2"/>
+        <v>5.5666666666666673</v>
+      </c>
+      <c r="U17" s="68">
+        <f t="shared" si="0"/>
+        <v>2.7833333333333337</v>
+      </c>
+      <c r="V17" s="68">
+        <f t="shared" si="1"/>
+        <v>27.833333333333336</v>
+      </c>
+      <c r="W17" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="59">
+        <v>105</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>490</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>592</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>587</v>
+      </c>
+      <c r="F18" s="59">
+        <v>167</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="I18" s="59">
+        <v>10</v>
+      </c>
+      <c r="J18" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="K18" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="59">
+        <v>10</v>
+      </c>
+      <c r="M18" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="N18" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="59">
+        <v>10</v>
+      </c>
+      <c r="P18" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q18" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="R18" s="59">
+        <v>10</v>
+      </c>
+      <c r="S18" s="59">
+        <v>1</v>
+      </c>
+      <c r="T18" s="68">
+        <f t="shared" si="2"/>
+        <v>8.3500000000000014</v>
+      </c>
+      <c r="U18" s="68">
+        <f t="shared" si="0"/>
+        <v>4.1750000000000007</v>
+      </c>
+      <c r="V18" s="68">
+        <f t="shared" si="1"/>
+        <v>41.750000000000007</v>
+      </c>
+      <c r="W18" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="59">
+        <v>106</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>491</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>587</v>
+      </c>
+      <c r="F19" s="59">
+        <v>167</v>
+      </c>
+      <c r="T19" s="68">
+        <f t="shared" si="2"/>
+        <v>5.5666666666666673</v>
+      </c>
+      <c r="U19" s="68">
+        <f t="shared" si="0"/>
+        <v>2.7833333333333337</v>
+      </c>
+      <c r="V19" s="68">
+        <f t="shared" si="1"/>
+        <v>27.833333333333336</v>
+      </c>
+      <c r="W19" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="59">
+        <v>107</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>492</v>
+      </c>
+      <c r="D20" s="59" t="s">
+        <v>587</v>
+      </c>
+      <c r="F20" s="59">
+        <v>167</v>
+      </c>
+      <c r="T20" s="68">
+        <f t="shared" si="2"/>
+        <v>5.5666666666666673</v>
+      </c>
+      <c r="U20" s="68">
+        <f t="shared" si="0"/>
+        <v>2.7833333333333337</v>
+      </c>
+      <c r="V20" s="68">
+        <f t="shared" si="1"/>
+        <v>27.833333333333336</v>
+      </c>
+      <c r="W20" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="59">
+        <v>108</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>493</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>587</v>
+      </c>
+      <c r="F21" s="59">
+        <v>167</v>
+      </c>
+      <c r="T21" s="68">
+        <f t="shared" si="2"/>
+        <v>5.5666666666666673</v>
+      </c>
+      <c r="U21" s="68">
+        <f t="shared" si="0"/>
+        <v>2.7833333333333337</v>
+      </c>
+      <c r="V21" s="68">
+        <f t="shared" si="1"/>
+        <v>27.833333333333336</v>
+      </c>
+      <c r="W21" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="59">
+        <v>109</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>494</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>593</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>590</v>
+      </c>
+      <c r="F22" s="59">
+        <v>167</v>
+      </c>
+      <c r="G22" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="H22" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="I22" s="59">
+        <v>10</v>
+      </c>
+      <c r="J22" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="K22" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="59">
+        <v>10</v>
+      </c>
+      <c r="M22" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="N22" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="O22" s="59">
+        <v>10</v>
+      </c>
+      <c r="P22" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q22" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="R22" s="59">
+        <v>10</v>
+      </c>
+      <c r="S22" s="59">
+        <v>2</v>
+      </c>
+      <c r="T22" s="68">
+        <f t="shared" si="2"/>
+        <v>12.525000000000002</v>
+      </c>
+      <c r="U22" s="68">
+        <f t="shared" si="0"/>
+        <v>6.2625000000000011</v>
+      </c>
+      <c r="V22" s="68">
+        <f t="shared" si="1"/>
+        <v>62.625000000000014</v>
+      </c>
+      <c r="W22" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="59">
+        <v>110</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>495</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>590</v>
+      </c>
+      <c r="F23" s="59">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="59">
+        <v>111</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>496</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>590</v>
+      </c>
+      <c r="F24" s="59">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="59">
+        <v>112</v>
+      </c>
+      <c r="B25" s="59" t="s">
+        <v>501</v>
+      </c>
+      <c r="D25" s="59" t="s">
+        <v>590</v>
+      </c>
+      <c r="F25" s="59">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Doc/XmlDataDocument_170515_장비추가.xlsx
+++ b/Doc/XmlDataDocument_170515_장비추가.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020" activeTab="4"/>
+    <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Consumable" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="장비스킬" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -121,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="635">
   <si>
     <t>hero</t>
   </si>
@@ -2045,7 +2044,482 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>소드맨</t>
+    <t>스텟(절반능력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체능력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부분능력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당시e갯수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드랍맵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드랍레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불덩이작렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음폭격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산사태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공허구체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독극물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메테오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운석충돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기공포</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭설</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파워계수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그라디우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스컬완드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱스태프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위자드리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크스톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀속여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파워계수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숏소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬레이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스탈로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이언링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클로버링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠퍼링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스트로이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>E07</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E25</t>
+  </si>
+  <si>
+    <t>E26</t>
+  </si>
+  <si>
+    <t>E27</t>
+  </si>
+  <si>
+    <t>E28</t>
+  </si>
+  <si>
+    <t>E29</t>
+  </si>
+  <si>
+    <t>E30</t>
+  </si>
+  <si>
+    <t>시미터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤프소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샙터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샐래맨더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제이드링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈이빨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로드소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스탈소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카오스소드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이언로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배틀스태프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아머링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔젤링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES25</t>
+  </si>
+  <si>
+    <t>ES26</t>
+  </si>
+  <si>
+    <t>ES27</t>
+  </si>
+  <si>
+    <t>ES28</t>
+  </si>
+  <si>
+    <t>ES29</t>
+  </si>
+  <si>
+    <t>ES30</t>
+  </si>
+  <si>
+    <t>ES31</t>
+  </si>
+  <si>
+    <t>ES32</t>
+  </si>
+  <si>
+    <t>ES33</t>
+  </si>
+  <si>
+    <t>ES34</t>
+  </si>
+  <si>
+    <t>ES35</t>
+  </si>
+  <si>
+    <t>ES36</t>
+  </si>
+  <si>
+    <t>ES37</t>
+  </si>
+  <si>
+    <t>ES38</t>
+  </si>
+  <si>
+    <t>ES39</t>
+  </si>
+  <si>
+    <t>ES40</t>
+  </si>
+  <si>
+    <t>ES41</t>
+  </si>
+  <si>
+    <t>ES42</t>
+  </si>
+  <si>
+    <t>ES43</t>
+  </si>
+  <si>
+    <t>ES44</t>
+  </si>
+  <si>
+    <t>ES45</t>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconSmall_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ES00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불덩이작렬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각얼음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음폭격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짱돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산사태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPriceReduceXH</t>
+  </si>
+  <si>
+    <t>절약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>util</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2053,455 +2527,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서릿발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쾌속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상급소드맨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상급서릿발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상급현자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스텟(절반능력)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체능력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부분능력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당시e갯수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드랍맵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>드랍레벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장비아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본등급</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>불덩이작렬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼음폭격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산사태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공허구체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>독극물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메테오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운석충돌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기공포</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭설</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>util</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파워계수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그라디우스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스컬완드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱스태프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위자드리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다크스톤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>귀속여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파워계수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추천능력치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숏소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬레이어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리스탈로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골드링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이언링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다크링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>클로버링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠퍼링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>롱소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디스트로이어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>US01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E03</t>
-  </si>
-  <si>
-    <t>E06</t>
-  </si>
-  <si>
-    <t>E07</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>E25</t>
-  </si>
-  <si>
-    <t>E26</t>
-  </si>
-  <si>
-    <t>E27</t>
-  </si>
-  <si>
-    <t>E28</t>
-  </si>
-  <si>
-    <t>E29</t>
-  </si>
-  <si>
-    <t>E30</t>
-  </si>
-  <si>
-    <t>시미터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샤프소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샙터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샐래맨더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>격차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제이드링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뼈이빨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브로드소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크리스탈소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카오스소드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이언로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배틀스태프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아머링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엔젤링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ES25</t>
-  </si>
-  <si>
-    <t>ES26</t>
-  </si>
-  <si>
-    <t>ES27</t>
-  </si>
-  <si>
-    <t>ES28</t>
-  </si>
-  <si>
-    <t>ES29</t>
-  </si>
-  <si>
-    <t>ES30</t>
-  </si>
-  <si>
-    <t>ES31</t>
-  </si>
-  <si>
-    <t>ES32</t>
-  </si>
-  <si>
-    <t>ES33</t>
-  </si>
-  <si>
-    <t>ES34</t>
-  </si>
-  <si>
-    <t>ES35</t>
-  </si>
-  <si>
-    <t>ES36</t>
-  </si>
-  <si>
-    <t>ES37</t>
-  </si>
-  <si>
-    <t>ES38</t>
-  </si>
-  <si>
-    <t>ES39</t>
-  </si>
-  <si>
-    <t>ES40</t>
-  </si>
-  <si>
-    <t>ES41</t>
-  </si>
-  <si>
-    <t>ES42</t>
-  </si>
-  <si>
-    <t>ES43</t>
-  </si>
-  <si>
-    <t>ES44</t>
-  </si>
-  <si>
-    <t>ES45</t>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운</t>
+    <t>fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceblock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신속함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillRateIncreaseXH</t>
+  </si>
+  <si>
+    <t>광전사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냉기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부분크리능력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2513,7 +2582,7 @@
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2592,6 +2661,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2649,7 +2726,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2823,13 +2900,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3046,29 +3149,41 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="79">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="80">
     <dxf>
       <font>
         <b val="0"/>
@@ -3157,58 +3272,7 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <numFmt numFmtId="177" formatCode="0.0_ "/>
     </dxf>
     <dxf>
       <font>
@@ -3497,6 +3561,93 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -4609,48 +4760,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표28_245" displayName="표28_245" ref="A1:M50" tableType="xml" totalsRowShown="0" headerRowDxfId="78" dataDxfId="77" connectionId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표28_245" displayName="표28_245" ref="A1:M50" tableType="xml" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" connectionId="32">
   <autoFilter ref="A1:M50">
     <filterColumn colId="1"/>
     <filterColumn colId="5"/>
     <filterColumn colId="12"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="76">
+    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="77">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="15" name="group" dataDxfId="75"/>
+    <tableColumn id="15" uniqueName="15" name="group" dataDxfId="76"/>
     <tableColumn id="5" uniqueName="name" name="name" dataCellStyle="표준">
       <calculatedColumnFormula>CONCATENATE("@S",표28_245[[#This Row],[id]],"N@")</calculatedColumnFormula>
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="74">
+    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="75">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@requireid" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="73">
+    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="74">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@icon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="14" name="icontext" dataDxfId="72"/>
-    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="71">
+    <tableColumn id="14" uniqueName="14" name="icontext" dataDxfId="73"/>
+    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="72">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@subicon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="70">
+    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="71">
       <calculatedColumnFormula>CONCATENATE("@S",표28_245[[#This Row],[id]],"D@")</calculatedColumnFormula>
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="type" name="stack" dataDxfId="69">
+    <tableColumn id="7" uniqueName="type" name="stack" dataDxfId="70">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="rate" name="rate" dataDxfId="68">
+    <tableColumn id="8" uniqueName="rate" name="rate" dataDxfId="69">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Rate/@rate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="target" name="target" dataDxfId="67">
+    <tableColumn id="10" uniqueName="target" name="target" dataDxfId="68">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="attribute" name="attribute" dataDxfId="66">
+    <tableColumn id="11" uniqueName="attribute" name="attribute" dataDxfId="67">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@attribute" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="value" name="value" dataDxfId="65">
+    <tableColumn id="3" uniqueName="value" name="value" dataDxfId="66">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@value" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -4712,7 +4863,7 @@
     <tableColumn id="16" uniqueName="value" name="value">
       <xmlColumnPr mapId="29" xpath="/Researches/Research/Bonus/@value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="stringvalue" name="stringvalue" dataDxfId="64">
+    <tableColumn id="17" uniqueName="stringvalue" name="stringvalue" dataDxfId="65">
       <xmlColumnPr mapId="29" xpath="/Researches/Research/Bonus/@stringvalue" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -4738,19 +4889,19 @@
       <calculatedColumnFormula>CONCATENATE("$",표30[[#This Row],[id]],"$")</calculatedColumnFormula>
       <xmlColumnPr mapId="42" xpath="/Elementals/Elemental/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="skillname" name="skillname" dataDxfId="63">
+    <tableColumn id="11" uniqueName="skillname" name="skillname" dataDxfId="64">
       <xmlColumnPr mapId="42" xpath="/Elementals/Elemental/@skillname" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="basecastintervalxk" name="basecastintervalxk">
       <xmlColumnPr mapId="42" xpath="/Elementals/Elemental/@basecastintervalxk" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="basedensity" name="basedensity" dataDxfId="62">
+    <tableColumn id="4" uniqueName="basedensity" name="basedensity" dataDxfId="63">
       <xmlColumnPr mapId="42" xpath="/Elementals/Elemental/@basedensity" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="baseprice" name="baseprice" dataDxfId="61">
+    <tableColumn id="10" uniqueName="baseprice" name="baseprice" dataDxfId="62">
       <xmlColumnPr mapId="42" xpath="/Elementals/Elemental/@baseprice" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="baselevel" name="baselevel" dataDxfId="60">
+    <tableColumn id="5" uniqueName="baselevel" name="baselevel" dataDxfId="61">
       <xmlColumnPr mapId="42" xpath="/Elementals/Elemental/@baselevel" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="prefab" name="prefab">
@@ -4763,7 +4914,7 @@
     <tableColumn id="8" uniqueName="baseskillratexk" name="baseskillratexk">
       <xmlColumnPr mapId="42" xpath="/Elementals/Elemental/@baseskillratexk" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="baseskilldamagexh" name="baseskilldamagexh" dataDxfId="59">
+    <tableColumn id="9" uniqueName="baseskilldamagexh" name="baseskilldamagexh" dataDxfId="60">
       <xmlColumnPr mapId="42" xpath="/Elementals/Elemental/@baseskilldamagexh" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -4772,7 +4923,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="표6" displayName="표6" ref="M1:O13" tableType="xml" totalsRowShown="0" headerRowDxfId="58" connectionId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="표6" displayName="표6" ref="M1:O13" tableType="xml" totalsRowShown="0" headerRowDxfId="59" connectionId="21">
   <autoFilter ref="M1:O13">
     <filterColumn colId="1"/>
   </autoFilter>
@@ -4780,7 +4931,7 @@
     <tableColumn id="1" uniqueName="fromlevel" name="fromlevel">
       <xmlColumnPr mapId="22" xpath="/Prices/Price/@fromlevel" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="tolevel" name="tolevel" dataDxfId="57">
+    <tableColumn id="3" uniqueName="tolevel" name="tolevel" dataDxfId="58">
       <calculatedColumnFormula>M3-1</calculatedColumnFormula>
       <xmlColumnPr mapId="22" xpath="/Prices/Price/@tolevel" xmlDataType="integer"/>
     </tableColumn>
@@ -4793,50 +4944,50 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표28_24" displayName="표28_24" ref="A1:M18" tableType="xml" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" connectionId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표28_24" displayName="표28_24" ref="A1:M18" tableType="xml" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" connectionId="32">
   <autoFilter ref="A1:M18">
     <filterColumn colId="12"/>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="54">
+    <tableColumn id="1" uniqueName="id" name="id" dataDxfId="55">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="53">
+    <tableColumn id="2" uniqueName="requireid" name="requireid" dataDxfId="54">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@requireid" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="type" name="type" dataDxfId="52">
+    <tableColumn id="7" uniqueName="type" name="type" dataDxfId="53">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="maxlevelper10" name="maxlevelper10" dataDxfId="51">
+    <tableColumn id="9" uniqueName="maxlevelper10" name="maxlevelper10" dataDxfId="52">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/@maxlevelper10" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="50">
+    <tableColumn id="4" uniqueName="icon" name="icon" dataDxfId="51">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@icon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="49">
+    <tableColumn id="13" uniqueName="subicon" name="subicon" dataDxfId="50">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@subicon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="48">
+    <tableColumn id="5" uniqueName="name" name="name" dataDxfId="49">
       <calculatedColumnFormula>CONCATENATE("@S",표28_24[[#This Row],[id]],"N@")</calculatedColumnFormula>
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="47">
+    <tableColumn id="6" uniqueName="description" name="descrption" dataDxfId="48">
       <calculatedColumnFormula>CONCATENATE("@S",표28_24[[#This Row],[id]],"D@")</calculatedColumnFormula>
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Info/@description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="rate" name="rate" dataDxfId="46">
+    <tableColumn id="8" uniqueName="rate" name="rate" dataDxfId="47">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Rate/@rate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="absrate" name="absrate" dataDxfId="45">
+    <tableColumn id="12" uniqueName="absrate" name="absrate" dataDxfId="46">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Rate/@absrate" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="target" name="target" dataDxfId="44">
+    <tableColumn id="10" uniqueName="target" name="target" dataDxfId="45">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="attribute" name="attribute" dataDxfId="43">
+    <tableColumn id="11" uniqueName="attribute" name="attribute" dataDxfId="44">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@attribute" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="value" name="value" dataDxfId="42">
+    <tableColumn id="3" uniqueName="value" name="value" dataDxfId="43">
       <xmlColumnPr mapId="12" xpath="/Talents/Talent/Bonus/@value" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -4845,40 +4996,40 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="표10" displayName="표10" ref="A1:P31" tableType="xml" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" connectionId="14">
-  <autoFilter ref="A1:P31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="표10" displayName="표10" ref="A1:P32" tableType="xml" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" connectionId="14">
+  <autoFilter ref="A1:P32">
     <filterColumn colId="7"/>
     <filterColumn colId="12"/>
     <filterColumn colId="13"/>
     <filterColumn colId="14"/>
     <filterColumn colId="15"/>
   </autoFilter>
-  <sortState ref="A2:P31">
-    <sortCondition ref="F1:F31"/>
+  <sortState ref="A2:P32">
+    <sortCondition ref="E1:E32"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" uniqueName="id" name="장비아이디" dataDxfId="39">
+    <tableColumn id="1" uniqueName="id" name="장비아이디" dataDxfId="40">
       <xmlColumnPr mapId="51" xpath="/Equipments/Equipment/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="icon" name="아이콘" dataDxfId="38">
+    <tableColumn id="2" uniqueName="icon" name="아이콘" dataDxfId="39">
       <xmlColumnPr mapId="51" xpath="/Equipments/Equipment/@icon" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="name" name="아이템이름" dataDxfId="37">
+    <tableColumn id="3" uniqueName="name" name="아이템이름" dataDxfId="38">
       <xmlColumnPr mapId="51" xpath="/Equipments/Equipment/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="dropmap" name="드랍맵" dataDxfId="36">
+    <tableColumn id="4" uniqueName="dropmap" name="드랍맵" dataDxfId="37">
       <xmlColumnPr mapId="51" xpath="/Equipments/Equipment/@dropmap" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="droplevel" name="드랍레벨" dataDxfId="35">
+    <tableColumn id="5" uniqueName="droplevel" name="드랍레벨" dataDxfId="36">
       <xmlColumnPr mapId="51" xpath="/Equipments/Equipment/@droplevel" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="grade" name="기본등급" dataDxfId="34">
+    <tableColumn id="6" uniqueName="grade" name="기본등급" dataDxfId="35">
       <xmlColumnPr mapId="51" xpath="/Equipments/Equipment/@grade" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="type" name="부위" dataDxfId="33">
+    <tableColumn id="7" uniqueName="type" name="부위" dataDxfId="34">
       <xmlColumnPr mapId="51" xpath="/Equipments/Equipment/@type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="skill" name="고정스킬" dataDxfId="0">
+    <tableColumn id="17" uniqueName="skill" name="고정스킬" dataDxfId="33">
       <xmlColumnPr mapId="51" xpath="/Equipments/Equipment/@skill" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="str" name="힘" dataDxfId="32">
@@ -4895,75 +5046,76 @@
     </tableColumn>
     <tableColumn id="13" uniqueName="13" name="파워계수" dataDxfId="28"/>
     <tableColumn id="14" uniqueName="14" name="추천능력치" dataDxfId="27"/>
-    <tableColumn id="16" uniqueName="16" name="격차" dataDxfId="25">
+    <tableColumn id="16" uniqueName="16" name="격차" dataDxfId="26">
       <calculatedColumnFormula>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" uniqueName="15" name="순번" dataDxfId="26"/>
+    <tableColumn id="15" uniqueName="15" name="순번" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="A1:V46" tableType="xml" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6" connectionId="19">
-  <autoFilter ref="A1:V46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="A1:W47" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="19">
+  <autoFilter ref="A1:W47">
     <filterColumn colId="16"/>
     <filterColumn colId="17"/>
     <filterColumn colId="18"/>
     <filterColumn colId="19"/>
     <filterColumn colId="20"/>
     <filterColumn colId="21"/>
+    <filterColumn colId="22"/>
   </autoFilter>
-  <tableColumns count="22">
-    <tableColumn id="1" uniqueName="id" name="아이디" dataDxfId="24">
+  <tableColumns count="23">
+    <tableColumn id="1" uniqueName="id" name="아이디" dataDxfId="22">
       <xmlColumnPr mapId="49" xpath="/EquipmentSkills/Skill/@id" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="name" name="스킬이름" dataDxfId="23">
+    <tableColumn id="2" uniqueName="name" name="스킬이름" dataDxfId="21">
       <xmlColumnPr mapId="49" xpath="/EquipmentSkills/Skill/@name" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="belong" name="귀속여부" dataDxfId="22">
+    <tableColumn id="4" uniqueName="belong" name="귀속여부" dataDxfId="20">
       <xmlColumnPr mapId="49" xpath="/EquipmentSkills/Skill/@belong" xmlDataType="boolean"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="droplevel" name="드랍레벨" dataDxfId="21">
+    <tableColumn id="5" uniqueName="droplevel" name="드랍레벨" dataDxfId="19">
       <xmlColumnPr mapId="49" xpath="/EquipmentSkills/Skill/@droplevel" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="target" name="대상1" dataDxfId="20">
+    <tableColumn id="6" uniqueName="target" name="대상1" dataDxfId="18">
       <xmlColumnPr mapId="49" xpath="/EquipmentSkills/Skill/Bonus1/@target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="attribute" name="속성1" dataDxfId="19">
+    <tableColumn id="7" uniqueName="attribute" name="속성1" dataDxfId="17">
       <xmlColumnPr mapId="49" xpath="/EquipmentSkills/Skill/Bonus1/@attribute" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="value" name="Value1" dataDxfId="18">
+    <tableColumn id="8" uniqueName="value" name="Value1" dataDxfId="16">
       <xmlColumnPr mapId="49" xpath="/EquipmentSkills/Skill/Bonus1/@value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="target" name="대상2" dataDxfId="17">
+    <tableColumn id="9" uniqueName="target" name="대상2" dataDxfId="15">
       <xmlColumnPr mapId="49" xpath="/EquipmentSkills/Skill/Bonus2/@target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="attribute" name="속성2" dataDxfId="16">
+    <tableColumn id="10" uniqueName="attribute" name="속성2" dataDxfId="14">
       <xmlColumnPr mapId="49" xpath="/EquipmentSkills/Skill/Bonus2/@attribute" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="value" name="Value2" dataDxfId="15">
+    <tableColumn id="11" uniqueName="value" name="Value2" dataDxfId="13">
       <xmlColumnPr mapId="49" xpath="/EquipmentSkills/Skill/Bonus2/@value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="target" name="대상3" dataDxfId="14">
+    <tableColumn id="12" uniqueName="target" name="대상3" dataDxfId="12">
       <xmlColumnPr mapId="49" xpath="/EquipmentSkills/Skill/Bonus3/@target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="attribute" name="속성3" dataDxfId="13">
+    <tableColumn id="13" uniqueName="attribute" name="속성3" dataDxfId="11">
       <xmlColumnPr mapId="49" xpath="/EquipmentSkills/Skill/Bonus3/@attribute" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" uniqueName="value" name="Value3" dataDxfId="12">
+    <tableColumn id="14" uniqueName="value" name="Value3" dataDxfId="10">
       <xmlColumnPr mapId="49" xpath="/EquipmentSkills/Skill/Bonus3/@value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="15" uniqueName="target" name="대상4" dataDxfId="11">
+    <tableColumn id="15" uniqueName="target" name="대상4" dataDxfId="9">
       <xmlColumnPr mapId="49" xpath="/EquipmentSkills/Skill/Bonus4/@target" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="16" uniqueName="attribute" name="속성4" dataDxfId="10">
+    <tableColumn id="16" uniqueName="attribute" name="속성4" dataDxfId="8">
       <xmlColumnPr mapId="49" xpath="/EquipmentSkills/Skill/Bonus4/@attribute" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="17" uniqueName="value" name="Value4" dataDxfId="9">
+    <tableColumn id="17" uniqueName="value" name="Value4" dataDxfId="7">
       <xmlColumnPr mapId="49" xpath="/EquipmentSkills/Skill/Bonus4/@value" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="value" name="순번" dataDxfId="8"/>
+    <tableColumn id="3" uniqueName="value" name="순번" dataDxfId="6"/>
     <tableColumn id="18" uniqueName="18" name="파워계수" dataDxfId="5"/>
     <tableColumn id="19" uniqueName="19" name="스텟(절반능력)" dataDxfId="4">
       <calculatedColumnFormula>D2/9*0.3*R2</calculatedColumnFormula>
@@ -4971,10 +5123,13 @@
     <tableColumn id="20" uniqueName="20" name="전체능력" dataDxfId="3">
       <calculatedColumnFormula>S2/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" uniqueName="21" name="부분능력" dataDxfId="1">
-      <calculatedColumnFormula>S2*V2</calculatedColumnFormula>
+    <tableColumn id="21" uniqueName="21" name="부분능력" dataDxfId="2">
+      <calculatedColumnFormula>S2*W2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" uniqueName="22" name="당시e갯수" dataDxfId="2"/>
+    <tableColumn id="23" uniqueName="23" name="부분크리능력" dataDxfId="0">
+      <calculatedColumnFormula>표8[[#This Row],[부분능력]]*2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" uniqueName="22" name="당시e갯수" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5360,7 +5515,7 @@
         <v>350</v>
       </c>
       <c r="K2" s="34" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>245</v>
@@ -5397,7 +5552,7 @@
         <v>300</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>74</v>
@@ -5437,7 +5592,7 @@
         <v>200</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="L4" s="15" t="s">
         <v>74</v>
@@ -5477,7 +5632,7 @@
         <v>100</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>74</v>
@@ -5519,7 +5674,7 @@
         <v>100</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="L6" s="15" t="s">
         <v>246</v>
@@ -7158,7 +7313,7 @@
         <v>315</v>
       </c>
       <c r="K47" s="37" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="L47" s="37" t="s">
         <v>248</v>
@@ -7202,7 +7357,7 @@
         <v>316</v>
       </c>
       <c r="K48" s="37" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="L48" s="37" t="s">
         <v>248</v>
@@ -7243,7 +7398,7 @@
         <v>100</v>
       </c>
       <c r="K49" s="37" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="L49" s="37" t="s">
         <v>248</v>
@@ -7280,7 +7435,7 @@
         <v>100</v>
       </c>
       <c r="K50" s="37" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="L50" s="41" t="s">
         <v>294</v>
@@ -7304,7 +7459,7 @@
   <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9467,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="O42" s="1" t="s">
         <v>31</v>
@@ -9519,7 +9674,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>31</v>
@@ -9571,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>31</v>
@@ -10277,7 +10432,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10306,7 +10461,7 @@
         <v>6</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D1" t="s">
         <v>183</v>
@@ -10350,7 +10505,7 @@
         <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D2" s="22">
         <v>5600</v>
@@ -10404,7 +10559,7 @@
         <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D3" s="22">
         <v>6400</v>
@@ -10458,7 +10613,7 @@
         <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D4" s="22">
         <v>5000</v>
@@ -10512,7 +10667,7 @@
         <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D5" s="22">
         <v>4900</v>
@@ -10566,7 +10721,7 @@
         <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D6" s="22">
         <v>5500</v>
@@ -10620,7 +10775,7 @@
         <v>143</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D7" s="22">
         <v>6100</v>
@@ -10674,7 +10829,7 @@
         <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D8" s="22">
         <v>5000</v>
@@ -10728,7 +10883,7 @@
         <v>182</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D9" s="22">
         <v>6000</v>
@@ -10782,7 +10937,7 @@
         <v>258</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D10" s="22">
         <v>6100</v>
@@ -11660,7 +11815,7 @@
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="L14" s="15" t="s">
         <v>429</v>
@@ -11707,7 +11862,7 @@
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="L15" s="15" t="s">
         <v>430</v>
@@ -11750,7 +11905,7 @@
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="L16" s="15" t="s">
         <v>124</v>
@@ -11793,7 +11948,7 @@
       </c>
       <c r="J17" s="18"/>
       <c r="K17" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="L17" s="15" t="s">
         <v>74</v>
@@ -11836,7 +11991,7 @@
         <v>10</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="L18" s="15" t="s">
         <v>127</v>
@@ -12041,10 +12196,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="11.25"/>
@@ -12068,67 +12223,67 @@
   <sheetData>
     <row r="1" spans="1:16" s="52" customFormat="1">
       <c r="A1" s="62" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="D1" s="70" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F1" s="62" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="G1" s="62" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="H1" s="69" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="I1" s="62" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="J1" s="62" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="K1" s="62" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="L1" s="62" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="M1" s="65" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="N1" s="64" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="O1" s="64" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="P1" s="66" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="72" customFormat="1">
       <c r="A2" s="63" t="s">
-        <v>488</v>
+        <v>611</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>489</v>
+        <v>607</v>
       </c>
       <c r="C2" s="63" t="s">
-        <v>554</v>
+        <v>608</v>
       </c>
       <c r="D2" s="63"/>
       <c r="E2" s="54">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="F2" s="54">
         <v>0</v>
@@ -12138,7 +12293,7 @@
       </c>
       <c r="H2" s="63"/>
       <c r="I2" s="54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J2" s="54">
         <v>0</v>
@@ -12153,23 +12308,23 @@
         <v>1</v>
       </c>
       <c r="N2" s="53">
-        <f>ROUND(E2/9*0.7*M2,0)</f>
-        <v>5</v>
+        <f t="shared" ref="N2:N32" si="0">ROUND(E2/9*0.7*M2,0)</f>
+        <v>0</v>
       </c>
       <c r="O2" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P2" s="53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="63" t="s">
-        <v>567</v>
+        <v>488</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>39</v>
+        <v>489</v>
       </c>
       <c r="C3" s="63" t="s">
         <v>544</v>
@@ -12182,14 +12337,14 @@
         <v>0</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>491</v>
+        <v>433</v>
       </c>
       <c r="H3" s="63"/>
       <c r="I3" s="54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K3" s="54">
         <v>0</v>
@@ -12201,7 +12356,7 @@
         <v>1</v>
       </c>
       <c r="N3" s="53">
-        <f>ROUND(E3/9*0.7*M3,0)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="O3" s="53">
@@ -12209,18 +12364,18 @@
         <v>0</v>
       </c>
       <c r="P3" s="53">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="63" t="s">
-        <v>436</v>
+        <v>556</v>
       </c>
       <c r="B4" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>562</v>
+        <v>534</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="54">
@@ -12230,17 +12385,17 @@
         <v>0</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="54">
         <v>0</v>
       </c>
       <c r="J4" s="54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K4" s="54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L4" s="54">
         <v>0</v>
@@ -12249,7 +12404,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="53">
-        <f>ROUND(E4/9*0.7*M4,0)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="O4" s="53">
@@ -12257,38 +12412,38 @@
         <v>0</v>
       </c>
       <c r="P4" s="53">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="63" t="s">
-        <v>569</v>
+        <v>436</v>
       </c>
       <c r="B5" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="54">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="F5" s="54">
         <v>0</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="H5" s="63"/>
       <c r="I5" s="54">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J5" s="54">
         <v>0</v>
       </c>
       <c r="K5" s="54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" s="54">
         <v>0</v>
@@ -12297,40 +12452,42 @@
         <v>1</v>
       </c>
       <c r="N5" s="53">
-        <f>ROUND(E5/9*0.7*M5,0)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="O5" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P5" s="53">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="63" t="s">
-        <v>437</v>
+        <v>555</v>
       </c>
       <c r="B6" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>578</v>
+        <v>533</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="54">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="F6" s="54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>433</v>
-      </c>
-      <c r="H6" s="63"/>
+        <v>490</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>606</v>
+      </c>
       <c r="I6" s="54">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J6" s="54">
         <v>0</v>
@@ -12339,39 +12496,39 @@
         <v>0</v>
       </c>
       <c r="L6" s="54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M6" s="54">
-        <v>1</v>
+        <v>3.375</v>
       </c>
       <c r="N6" s="53">
-        <f>ROUND(E6/9*0.7*M6,0)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="O6" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P6" s="53">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="63" t="s">
-        <v>571</v>
+        <v>435</v>
       </c>
       <c r="B7" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="63" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="D7" s="63"/>
       <c r="E7" s="54">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="F7" s="54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="63" t="s">
         <v>491</v>
@@ -12381,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="54">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K7" s="54">
         <v>0</v>
@@ -12390,77 +12547,77 @@
         <v>0</v>
       </c>
       <c r="M7" s="54">
-        <v>1</v>
+        <v>3.375</v>
       </c>
       <c r="N7" s="53">
-        <f>ROUND(E7/9*0.7*M7,0)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="O7" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P7" s="53">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="63" t="s">
-        <v>439</v>
+        <v>557</v>
       </c>
       <c r="B8" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="54">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="F8" s="54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H8" s="63"/>
       <c r="I8" s="54">
         <v>0</v>
       </c>
       <c r="J8" s="54">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K8" s="54">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="L8" s="54">
         <v>0</v>
       </c>
       <c r="M8" s="54">
-        <v>1</v>
+        <v>3.375</v>
       </c>
       <c r="N8" s="53">
-        <f>ROUND(E8/9*0.7*M8,0)</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="O8" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P8" s="53">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="63" t="s">
-        <v>442</v>
+        <v>558</v>
       </c>
       <c r="B9" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="D9" s="63"/>
       <c r="E9" s="54">
@@ -12470,17 +12627,17 @@
         <v>0</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>492</v>
+        <v>433</v>
       </c>
       <c r="H9" s="63"/>
       <c r="I9" s="54">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J9" s="54">
         <v>0</v>
       </c>
       <c r="K9" s="54">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L9" s="54">
         <v>0</v>
@@ -12489,7 +12646,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="53">
-        <f>ROUND(E9/9*0.7*M9,0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="O9" s="53">
@@ -12497,18 +12654,18 @@
         <v>0</v>
       </c>
       <c r="P9" s="53">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="63" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B10" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
       <c r="D10" s="63"/>
       <c r="E10" s="54">
@@ -12518,26 +12675,26 @@
         <v>0</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>492</v>
+        <v>433</v>
       </c>
       <c r="H10" s="63"/>
       <c r="I10" s="54">
+        <v>8</v>
+      </c>
+      <c r="J10" s="54">
+        <v>0</v>
+      </c>
+      <c r="K10" s="54">
+        <v>0</v>
+      </c>
+      <c r="L10" s="54">
         <v>5</v>
-      </c>
-      <c r="J10" s="54">
-        <v>0</v>
-      </c>
-      <c r="K10" s="54">
-        <v>8</v>
-      </c>
-      <c r="L10" s="54">
-        <v>0</v>
       </c>
       <c r="M10" s="54">
         <v>1</v>
       </c>
       <c r="N10" s="53">
-        <f>ROUND(E10/9*0.7*M10,0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="O10" s="53">
@@ -12545,35 +12702,35 @@
         <v>0</v>
       </c>
       <c r="P10" s="53">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="63" t="s">
-        <v>446</v>
+        <v>560</v>
       </c>
       <c r="B11" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>585</v>
+        <v>536</v>
       </c>
       <c r="D11" s="63"/>
       <c r="E11" s="54">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="F11" s="54">
         <v>0</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>433</v>
+        <v>491</v>
       </c>
       <c r="H11" s="63"/>
       <c r="I11" s="54">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J11" s="54">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K11" s="54">
         <v>0</v>
@@ -12585,46 +12742,46 @@
         <v>1</v>
       </c>
       <c r="N11" s="53">
-        <f>ROUND(E11/9*0.7*M11,0)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="O11" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P11" s="53">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="63" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B12" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="D12" s="63"/>
       <c r="E12" s="54">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="F12" s="54">
         <v>0</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>433</v>
+        <v>491</v>
       </c>
       <c r="H12" s="63"/>
       <c r="I12" s="54">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J12" s="54">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K12" s="54">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L12" s="54">
         <v>0</v>
@@ -12633,46 +12790,46 @@
         <v>1</v>
       </c>
       <c r="N12" s="53">
-        <f>ROUND(E12/9*0.7*M12,0)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="O12" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P12" s="53">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="63" t="s">
-        <v>484</v>
+        <v>442</v>
       </c>
       <c r="B13" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="D13" s="63"/>
       <c r="E13" s="54">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="F13" s="54">
         <v>0</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H13" s="63"/>
       <c r="I13" s="54">
         <v>0</v>
       </c>
       <c r="J13" s="54">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="K13" s="54">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L13" s="54">
         <v>0</v>
@@ -12681,46 +12838,46 @@
         <v>1</v>
       </c>
       <c r="N13" s="53">
-        <f>ROUND(E13/9*0.7*M13,0)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="O13" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P13" s="53">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="63" t="s">
-        <v>485</v>
+        <v>443</v>
       </c>
       <c r="B14" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="D14" s="63"/>
       <c r="E14" s="54">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="F14" s="54">
         <v>0</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H14" s="63"/>
       <c r="I14" s="54">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J14" s="54">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K14" s="54">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L14" s="54">
         <v>0</v>
@@ -12729,176 +12886,174 @@
         <v>1</v>
       </c>
       <c r="N14" s="53">
-        <f>ROUND(E14/9*0.7*M14,0)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="O14" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P14" s="53">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="63" t="s">
-        <v>574</v>
+        <v>438</v>
       </c>
       <c r="B15" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D15" s="63"/>
       <c r="E15" s="54">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="F15" s="54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>492</v>
+        <v>433</v>
       </c>
       <c r="H15" s="63"/>
       <c r="I15" s="54">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="J15" s="54">
         <v>0</v>
       </c>
       <c r="K15" s="54">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L15" s="54">
         <v>0</v>
       </c>
       <c r="M15" s="54">
-        <v>1</v>
+        <v>3.375</v>
       </c>
       <c r="N15" s="53">
-        <f>ROUND(E15/9*0.7*M15,0)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="O15" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P15" s="53">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="63" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="B16" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="D16" s="63"/>
       <c r="E16" s="54">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="F16" s="54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16" s="63" t="s">
-        <v>492</v>
+        <v>433</v>
       </c>
       <c r="H16" s="63"/>
       <c r="I16" s="54">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J16" s="54">
         <v>0</v>
       </c>
       <c r="K16" s="54">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L16" s="54">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M16" s="54">
-        <v>1</v>
+        <v>3.375</v>
       </c>
       <c r="N16" s="53">
-        <f>ROUND(E16/9*0.7*M16,0)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="O16" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P16" s="53">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="63" t="s">
-        <v>566</v>
+        <v>440</v>
       </c>
       <c r="B17" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D17" s="63"/>
       <c r="E17" s="54">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="F17" s="54">
         <v>3</v>
       </c>
       <c r="G17" s="63" t="s">
-        <v>490</v>
-      </c>
-      <c r="H17" s="63" t="s">
-        <v>565</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="H17" s="63"/>
       <c r="I17" s="54">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J17" s="54">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K17" s="54">
         <v>0</v>
       </c>
       <c r="L17" s="54">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M17" s="54">
-        <v>2.75</v>
+        <v>3.375</v>
       </c>
       <c r="N17" s="53">
-        <f>ROUND(E17/9*0.7*M17,0)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="O17" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P17" s="53">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="63" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B18" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
       <c r="D18" s="63"/>
       <c r="E18" s="54">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="F18" s="54">
         <v>3</v>
@@ -12908,45 +13063,45 @@
       </c>
       <c r="H18" s="63"/>
       <c r="I18" s="54">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J18" s="54">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K18" s="54">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L18" s="54">
         <v>0</v>
       </c>
       <c r="M18" s="54">
-        <v>2.75</v>
+        <v>3.375</v>
       </c>
       <c r="N18" s="53">
-        <f>ROUND(E18/9*0.7*M18,0)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="O18" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P18" s="53">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="63" t="s">
-        <v>568</v>
+        <v>444</v>
       </c>
       <c r="B19" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="D19" s="63"/>
       <c r="E19" s="54">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="F19" s="54">
         <v>3</v>
@@ -12959,38 +13114,38 @@
         <v>0</v>
       </c>
       <c r="J19" s="54">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K19" s="54">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L19" s="54">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M19" s="54">
-        <v>2.75</v>
+        <v>3.375</v>
       </c>
       <c r="N19" s="53">
-        <f>ROUND(E19/9*0.7*M19,0)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="O19" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P19" s="53">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="63" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B20" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="D20" s="63"/>
       <c r="E20" s="54">
@@ -13000,59 +13155,59 @@
         <v>3</v>
       </c>
       <c r="G20" s="63" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="H20" s="63"/>
       <c r="I20" s="54">
+        <v>8</v>
+      </c>
+      <c r="J20" s="54">
+        <v>0</v>
+      </c>
+      <c r="K20" s="54">
         <v>36</v>
       </c>
-      <c r="J20" s="54">
-        <v>0</v>
-      </c>
-      <c r="K20" s="54">
-        <v>0</v>
-      </c>
       <c r="L20" s="54">
         <v>0</v>
       </c>
       <c r="M20" s="54">
-        <v>2.75</v>
+        <v>3.375</v>
       </c>
       <c r="N20" s="53">
-        <f>ROUND(E20/9*0.7*M20,0)</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="O20" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P20" s="53">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="63" t="s">
-        <v>570</v>
+        <v>446</v>
       </c>
       <c r="B21" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D21" s="63"/>
       <c r="E21" s="54">
-        <v>167</v>
+        <v>312</v>
       </c>
       <c r="F21" s="54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" s="63" t="s">
         <v>433</v>
       </c>
       <c r="H21" s="63"/>
       <c r="I21" s="54">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J21" s="54">
         <v>0</v>
@@ -13061,272 +13216,272 @@
         <v>0</v>
       </c>
       <c r="L21" s="54">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="M21" s="54">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="N21" s="53">
-        <f>ROUND(E21/9*0.7*M21,0)</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="O21" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P21" s="53">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="63" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B22" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="63" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="D22" s="63"/>
       <c r="E22" s="54">
-        <v>167</v>
+        <v>312</v>
       </c>
       <c r="F22" s="54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" s="63" t="s">
-        <v>491</v>
+        <v>433</v>
       </c>
       <c r="H22" s="63"/>
       <c r="I22" s="54">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J22" s="54">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="K22" s="54">
         <v>0</v>
       </c>
       <c r="L22" s="54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M22" s="54">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="N22" s="53">
-        <f>ROUND(E22/9*0.7*M22,0)</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="O22" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P22" s="53">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="63" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="B23" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="63" t="s">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="D23" s="63"/>
       <c r="E23" s="54">
-        <v>167</v>
+        <v>312</v>
       </c>
       <c r="F23" s="54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G23" s="63" t="s">
         <v>491</v>
       </c>
       <c r="H23" s="63"/>
       <c r="I23" s="54">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J23" s="54">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K23" s="54">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L23" s="54">
         <v>0</v>
       </c>
       <c r="M23" s="54">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="N23" s="53">
-        <f>ROUND(E23/9*0.7*M23,0)</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="O23" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P23" s="53">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="63" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="B24" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="63" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D24" s="63"/>
       <c r="E24" s="54">
-        <v>167</v>
+        <v>312</v>
       </c>
       <c r="F24" s="54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G24" s="63" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H24" s="63"/>
       <c r="I24" s="54">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J24" s="54">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K24" s="54">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L24" s="54">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M24" s="54">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="N24" s="53">
-        <f>ROUND(E24/9*0.7*M24,0)</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="O24" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P24" s="53">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="63" t="s">
-        <v>445</v>
+        <v>563</v>
       </c>
       <c r="B25" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="63" t="s">
-        <v>584</v>
+        <v>548</v>
       </c>
       <c r="D25" s="63"/>
       <c r="E25" s="54">
-        <v>167</v>
+        <v>312</v>
       </c>
       <c r="F25" s="54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" s="63" t="s">
         <v>492</v>
       </c>
       <c r="H25" s="63"/>
       <c r="I25" s="54">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J25" s="54">
         <v>0</v>
       </c>
       <c r="K25" s="54">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="L25" s="54">
         <v>0</v>
       </c>
       <c r="M25" s="54">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="N25" s="53">
-        <f>ROUND(E25/9*0.7*M25,0)</f>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="O25" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P25" s="53">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="63" t="s">
-        <v>448</v>
+        <v>564</v>
       </c>
       <c r="B26" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="63" t="s">
-        <v>555</v>
+        <v>580</v>
       </c>
       <c r="D26" s="63"/>
       <c r="E26" s="54">
         <v>312</v>
       </c>
       <c r="F26" s="54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" s="63" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="H26" s="63"/>
       <c r="I26" s="54">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="J26" s="54">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K26" s="54">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="L26" s="54">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M26" s="54">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="N26" s="53">
-        <f>ROUND(E26/9*0.7*M26,0)</f>
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="O26" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P26" s="53">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="63" t="s">
-        <v>483</v>
+        <v>448</v>
       </c>
       <c r="B27" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="63" t="s">
-        <v>587</v>
+        <v>545</v>
       </c>
       <c r="D27" s="63"/>
       <c r="E27" s="54">
@@ -13340,41 +13495,41 @@
       </c>
       <c r="H27" s="63"/>
       <c r="I27" s="54">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27" s="54">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K27" s="54">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L27" s="54">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M27" s="54">
-        <v>2.75</v>
+        <v>3.375</v>
       </c>
       <c r="N27" s="53">
-        <f>ROUND(E27/9*0.7*M27,0)</f>
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>82</v>
       </c>
       <c r="O27" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P27" s="53">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="63" t="s">
-        <v>572</v>
+        <v>483</v>
       </c>
       <c r="B28" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="D28" s="63"/>
       <c r="E28" s="54">
@@ -13384,45 +13539,45 @@
         <v>3</v>
       </c>
       <c r="G28" s="63" t="s">
-        <v>491</v>
+        <v>433</v>
       </c>
       <c r="H28" s="63"/>
       <c r="I28" s="54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J28" s="54">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="K28" s="54">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L28" s="54">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M28" s="54">
-        <v>2.75</v>
+        <v>3.375</v>
       </c>
       <c r="N28" s="53">
-        <f>ROUND(E28/9*0.7*M28,0)</f>
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>82</v>
       </c>
       <c r="O28" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P28" s="53">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="63" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="B29" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>590</v>
+        <v>547</v>
       </c>
       <c r="D29" s="63"/>
       <c r="E29" s="54">
@@ -13436,41 +13591,41 @@
       </c>
       <c r="H29" s="63"/>
       <c r="I29" s="54">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J29" s="54">
+        <v>45</v>
+      </c>
+      <c r="K29" s="54">
         <v>25</v>
       </c>
-      <c r="K29" s="54">
-        <v>0</v>
-      </c>
       <c r="L29" s="54">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M29" s="54">
-        <v>2.75</v>
+        <v>3.375</v>
       </c>
       <c r="N29" s="53">
-        <f>ROUND(E29/9*0.7*M29,0)</f>
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>82</v>
       </c>
       <c r="O29" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P29" s="53">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="63" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="B30" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="63" t="s">
-        <v>548</v>
+        <v>579</v>
       </c>
       <c r="D30" s="63"/>
       <c r="E30" s="54">
@@ -13480,45 +13635,45 @@
         <v>3</v>
       </c>
       <c r="G30" s="63" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H30" s="63"/>
       <c r="I30" s="54">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J30" s="54">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="K30" s="54">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="L30" s="54">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M30" s="54">
-        <v>2.75</v>
+        <v>3.375</v>
       </c>
       <c r="N30" s="53">
-        <f>ROUND(E30/9*0.7*M30,0)</f>
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>82</v>
       </c>
       <c r="O30" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="P30" s="53">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="63" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="B31" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>592</v>
+        <v>538</v>
       </c>
       <c r="D31" s="63"/>
       <c r="E31" s="54">
@@ -13532,48 +13687,82 @@
       </c>
       <c r="H31" s="63"/>
       <c r="I31" s="54">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J31" s="54">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K31" s="54">
         <v>22</v>
       </c>
       <c r="L31" s="54">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M31" s="54">
-        <v>2.75</v>
+        <v>3.375</v>
       </c>
       <c r="N31" s="53">
-        <f>ROUND(E31/9*0.7*M31,0)</f>
-        <v>67</v>
+        <f t="shared" si="0"/>
+        <v>82</v>
       </c>
       <c r="O31" s="53">
         <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
         <v>0</v>
       </c>
       <c r="P31" s="53">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="63" t="s">
+        <v>566</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>581</v>
+      </c>
+      <c r="D32" s="63"/>
+      <c r="E32" s="54">
+        <v>312</v>
+      </c>
+      <c r="F32" s="54">
+        <v>3</v>
+      </c>
+      <c r="G32" s="63" t="s">
+        <v>492</v>
+      </c>
+      <c r="H32" s="63"/>
+      <c r="I32" s="54">
+        <v>0</v>
+      </c>
+      <c r="J32" s="54">
+        <v>0</v>
+      </c>
+      <c r="K32" s="54">
+        <v>82</v>
+      </c>
+      <c r="L32" s="54">
+        <v>0</v>
+      </c>
+      <c r="M32" s="54">
+        <v>3.375</v>
+      </c>
+      <c r="N32" s="53">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="O32" s="53">
+        <f>표10[[#This Row],[추천능력치]]-SUM(표10[[#This Row],[힘]:[속도]])</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="53">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="B32" s="63"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
+    <row r="33" spans="1:12">
+      <c r="B33" s="63"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="63"/>
@@ -13589,19 +13778,19 @@
       <c r="K35" s="54"/>
       <c r="L35" s="54"/>
     </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="63"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
+    <row r="36" spans="1:12">
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="63"/>
@@ -13757,6 +13946,20 @@
       <c r="K60" s="54"/>
       <c r="L60" s="54"/>
     </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="63"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13769,10 +13972,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -13797,328 +14000,283 @@
     <col min="18" max="18" width="9" style="53"/>
     <col min="19" max="19" width="12.875" style="53" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="9" style="53" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.75" style="53" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="53"/>
+    <col min="22" max="22" width="9" style="53" customWidth="1"/>
+    <col min="23" max="23" width="9.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="12" thickBot="1">
+    <row r="1" spans="1:26" ht="12" thickBot="1">
       <c r="A1" s="57" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>501</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>502</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>503</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>504</v>
+      </c>
+      <c r="H1" s="59" t="s">
+        <v>505</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>506</v>
+      </c>
+      <c r="J1" s="61" t="s">
+        <v>507</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>508</v>
+      </c>
+      <c r="L1" s="60" t="s">
         <v>509</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>508</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>550</v>
-      </c>
-      <c r="D1" s="57" t="s">
+      <c r="M1" s="61" t="s">
+        <v>510</v>
+      </c>
+      <c r="N1" s="59" t="s">
         <v>511</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="O1" s="60" t="s">
         <v>512</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="P1" s="61" t="s">
         <v>513</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>514</v>
-      </c>
-      <c r="H1" s="59" t="s">
-        <v>515</v>
-      </c>
-      <c r="I1" s="60" t="s">
-        <v>516</v>
-      </c>
-      <c r="J1" s="61" t="s">
-        <v>517</v>
-      </c>
-      <c r="K1" s="59" t="s">
-        <v>518</v>
-      </c>
-      <c r="L1" s="60" t="s">
-        <v>519</v>
-      </c>
-      <c r="M1" s="61" t="s">
-        <v>520</v>
-      </c>
-      <c r="N1" s="59" t="s">
-        <v>521</v>
-      </c>
-      <c r="O1" s="60" t="s">
-        <v>522</v>
-      </c>
-      <c r="P1" s="61" t="s">
-        <v>523</v>
       </c>
       <c r="Q1" s="67" t="s">
         <v>487</v>
       </c>
       <c r="R1" s="64" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="S1" s="64" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="T1" s="64" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="U1" s="64" t="s">
-        <v>506</v>
-      </c>
-      <c r="V1" s="68" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="56" t="s">
+        <v>496</v>
+      </c>
+      <c r="V1" s="64" t="s">
+        <v>634</v>
+      </c>
+      <c r="W1" s="68" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="72" t="s">
+        <v>609</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>610</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>604</v>
+      </c>
+      <c r="D2" s="72">
+        <v>0</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="74">
+        <v>0</v>
+      </c>
+      <c r="R2" s="74">
+        <v>2.25</v>
+      </c>
+      <c r="S2" s="75">
+        <f>D2/9*0.3*R2</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="75">
+        <f>S2/2</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="75">
+        <f>S2*W2</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="75">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>0</v>
+      </c>
+      <c r="W2" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="56" t="s">
         <v>493</v>
       </c>
-      <c r="B2" s="56" t="s">
-        <v>494</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>615</v>
-      </c>
-      <c r="D2" s="53">
-        <v>67</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>434</v>
-      </c>
-      <c r="G2" s="53">
-        <v>10</v>
-      </c>
-      <c r="H2" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="I2" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="53">
-        <v>10</v>
-      </c>
-      <c r="K2" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="L2" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="53">
-        <v>10</v>
-      </c>
-      <c r="N2" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="O2" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="P2" s="53">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="53">
-        <v>1</v>
-      </c>
-      <c r="R2" s="53">
-        <v>2.25</v>
-      </c>
-      <c r="S2" s="55">
-        <f>D2/9*0.3*R2</f>
-        <v>5.0250000000000004</v>
-      </c>
-      <c r="T2" s="55">
-        <f>S2/2</f>
-        <v>2.5125000000000002</v>
-      </c>
-      <c r="U2" s="55">
-        <f>S2*V2</f>
-        <v>15.075000000000001</v>
-      </c>
-      <c r="V2" s="53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="56" t="s">
-        <v>461</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>496</v>
+      <c r="B3" s="53" t="s">
+        <v>626</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D3" s="53">
         <v>67</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="H3" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="I3" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="53">
-        <v>10</v>
-      </c>
-      <c r="K3" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="L3" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" s="53">
-        <v>10</v>
-      </c>
-      <c r="N3" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="O3" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="P3" s="53">
-        <v>10</v>
-      </c>
+      <c r="E3" s="53" t="s">
+        <v>627</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>628</v>
+      </c>
+      <c r="G3" s="53">
+        <v>5</v>
+      </c>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
       <c r="Q3" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R3" s="53">
         <v>2.25</v>
       </c>
       <c r="S3" s="55">
-        <f t="shared" ref="S3:S46" si="0">D3/9*0.3*R3</f>
+        <f>D3/9*0.3*R3</f>
         <v>5.0250000000000004</v>
       </c>
       <c r="T3" s="55">
-        <f t="shared" ref="T3:T46" si="1">S3/2</f>
+        <f>S3/2</f>
         <v>2.5125000000000002</v>
       </c>
       <c r="U3" s="55">
-        <f t="shared" ref="U3:U46" si="2">S3*V3</f>
+        <f>S3*W3</f>
         <v>15.075000000000001</v>
       </c>
-      <c r="V3" s="53">
+      <c r="V3" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>30.150000000000002</v>
+      </c>
+      <c r="W3" s="53">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="Y3" s="76" t="s">
+        <v>612</v>
+      </c>
+      <c r="Z3" s="77" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="56" t="s">
-        <v>462</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>497</v>
+        <v>461</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>619</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D4" s="53">
         <v>67</v>
       </c>
-      <c r="E4" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>434</v>
+      <c r="E4" s="53" t="s">
+        <v>621</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>618</v>
       </c>
       <c r="G4" s="53">
-        <v>10</v>
-      </c>
-      <c r="H4" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="I4" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="53">
-        <v>10</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="L4" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="53">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
       <c r="N4" s="56"/>
       <c r="O4" s="56"/>
       <c r="Q4" s="53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R4" s="53">
         <v>2.25</v>
       </c>
       <c r="S4" s="55">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="S4:S47" si="0">D4/9*0.3*R4</f>
         <v>5.0250000000000004</v>
       </c>
       <c r="T4" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="T4:T47" si="1">S4/2</f>
         <v>2.5125000000000002</v>
       </c>
       <c r="U4" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="U4:U47" si="2">S4*W4</f>
         <v>15.075000000000001</v>
       </c>
-      <c r="V4" s="53">
+      <c r="V4" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>30.150000000000002</v>
+      </c>
+      <c r="W4" s="53">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="Y4" s="78" t="s">
+        <v>614</v>
+      </c>
+      <c r="Z4" s="79" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="56" t="s">
-        <v>463</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>498</v>
+        <v>462</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>620</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D5" s="53">
         <v>67</v>
       </c>
-      <c r="E5" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="F5" s="56" t="s">
+      <c r="E5" s="53" t="s">
+        <v>622</v>
+      </c>
+      <c r="F5" s="53" t="s">
         <v>434</v>
       </c>
       <c r="G5" s="53">
-        <v>10</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="I5" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="53">
-        <v>10</v>
-      </c>
-      <c r="K5" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="L5" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="53">
-        <v>10</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="O5" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="P5" s="53">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
       <c r="Q5" s="53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R5" s="53">
         <v>2.25</v>
@@ -14135,61 +14293,50 @@
         <f t="shared" si="2"/>
         <v>15.075000000000001</v>
       </c>
-      <c r="V5" s="53">
+      <c r="V5" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>30.150000000000002</v>
+      </c>
+      <c r="W5" s="53">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="Y5" s="80" t="s">
+        <v>616</v>
+      </c>
+      <c r="Z5" s="81" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="56" t="s">
-        <v>464</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>499</v>
+        <v>463</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>630</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D6" s="53">
         <v>67</v>
       </c>
-      <c r="E6" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>434</v>
+      <c r="E6" s="53" t="s">
+        <v>622</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>65</v>
       </c>
       <c r="G6" s="53">
-        <v>10</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="53">
-        <v>10</v>
-      </c>
-      <c r="K6" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="L6" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="53">
-        <v>10</v>
-      </c>
-      <c r="N6" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="O6" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" s="53">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
       <c r="Q6" s="53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R6" s="53">
         <v>2.25</v>
@@ -14206,61 +14353,44 @@
         <f t="shared" si="2"/>
         <v>15.075000000000001</v>
       </c>
-      <c r="V6" s="53">
+      <c r="V6" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>30.150000000000002</v>
+      </c>
+      <c r="W6" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:26">
       <c r="A7" s="56" t="s">
-        <v>465</v>
-      </c>
-      <c r="B7" s="56" t="s">
-        <v>500</v>
+        <v>464</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>631</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D7" s="53">
         <v>67</v>
       </c>
-      <c r="E7" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="56" t="s">
-        <v>434</v>
+      <c r="E7" s="53" t="s">
+        <v>623</v>
+      </c>
+      <c r="F7" s="53" t="s">
+        <v>167</v>
       </c>
       <c r="G7" s="53">
-        <v>10</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="53">
-        <v>10</v>
-      </c>
-      <c r="K7" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="53">
-        <v>10</v>
-      </c>
-      <c r="N7" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" s="53">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
       <c r="Q7" s="53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R7" s="53">
         <v>2.25</v>
@@ -14277,23 +14407,36 @@
         <f t="shared" si="2"/>
         <v>15.075000000000001</v>
       </c>
-      <c r="V7" s="53">
+      <c r="V7" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>30.150000000000002</v>
+      </c>
+      <c r="W7" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:26">
       <c r="A8" s="56" t="s">
-        <v>466</v>
-      </c>
-      <c r="B8" s="56"/>
+        <v>465</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>632</v>
+      </c>
       <c r="C8" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D8" s="53">
         <v>67</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
+      <c r="E8" s="53" t="s">
+        <v>624</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="53">
+        <v>15</v>
+      </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
       <c r="K8" s="56"/>
@@ -14301,7 +14444,7 @@
       <c r="N8" s="56"/>
       <c r="O8" s="56"/>
       <c r="Q8" s="53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R8" s="53">
         <v>2.25</v>
@@ -14318,23 +14461,36 @@
         <f t="shared" si="2"/>
         <v>15.075000000000001</v>
       </c>
-      <c r="V8" s="53">
+      <c r="V8" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>30.150000000000002</v>
+      </c>
+      <c r="W8" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:26">
       <c r="A9" s="56" t="s">
-        <v>467</v>
-      </c>
-      <c r="B9" s="56"/>
+        <v>466</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>633</v>
+      </c>
       <c r="C9" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D9" s="53">
         <v>67</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
+      <c r="E9" s="53" t="s">
+        <v>625</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="G9" s="53">
+        <v>30</v>
+      </c>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
       <c r="K9" s="56"/>
@@ -14342,7 +14498,7 @@
       <c r="N9" s="56"/>
       <c r="O9" s="56"/>
       <c r="Q9" s="53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R9" s="53">
         <v>2.25</v>
@@ -14359,23 +14515,24 @@
         <f t="shared" si="2"/>
         <v>15.075000000000001</v>
       </c>
-      <c r="V9" s="53">
+      <c r="V9" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>30.150000000000002</v>
+      </c>
+      <c r="W9" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:26">
       <c r="A10" s="56" t="s">
-        <v>468</v>
-      </c>
-      <c r="B10" s="56"/>
+        <v>467</v>
+      </c>
       <c r="C10" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D10" s="53">
         <v>67</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
       <c r="K10" s="56"/>
@@ -14383,7 +14540,7 @@
       <c r="N10" s="56"/>
       <c r="O10" s="56"/>
       <c r="Q10" s="53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R10" s="53">
         <v>2.25</v>
@@ -14400,23 +14557,25 @@
         <f t="shared" si="2"/>
         <v>15.075000000000001</v>
       </c>
-      <c r="V10" s="53">
+      <c r="V10" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>30.150000000000002</v>
+      </c>
+      <c r="W10" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:26">
       <c r="A11" s="56" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B11" s="56"/>
       <c r="C11" s="56" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="D11" s="53">
         <v>67</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
       <c r="H11" s="56"/>
       <c r="I11" s="56"/>
       <c r="K11" s="56"/>
@@ -14424,34 +14583,38 @@
       <c r="N11" s="56"/>
       <c r="O11" s="56"/>
       <c r="Q11" s="53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R11" s="53">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="S11" s="55">
         <f t="shared" si="0"/>
-        <v>6.1416666666666666</v>
+        <v>5.0250000000000004</v>
       </c>
       <c r="T11" s="55">
         <f t="shared" si="1"/>
-        <v>3.0708333333333333</v>
+        <v>2.5125000000000002</v>
       </c>
       <c r="U11" s="55">
         <f t="shared" si="2"/>
-        <v>18.425000000000001</v>
-      </c>
-      <c r="V11" s="53">
+        <v>15.075000000000001</v>
+      </c>
+      <c r="V11" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>30.150000000000002</v>
+      </c>
+      <c r="W11" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:26">
       <c r="A12" s="56" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B12" s="56"/>
       <c r="C12" s="56" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D12" s="53">
         <v>67</v>
@@ -14465,7 +14628,7 @@
       <c r="N12" s="56"/>
       <c r="O12" s="56"/>
       <c r="Q12" s="53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R12" s="53">
         <v>2.75</v>
@@ -14482,17 +14645,21 @@
         <f t="shared" si="2"/>
         <v>18.425000000000001</v>
       </c>
-      <c r="V12" s="53">
+      <c r="V12" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>36.85</v>
+      </c>
+      <c r="W12" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:26">
       <c r="A13" s="56" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B13" s="56"/>
       <c r="C13" s="56" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D13" s="53">
         <v>67</v>
@@ -14506,7 +14673,7 @@
       <c r="N13" s="56"/>
       <c r="O13" s="56"/>
       <c r="Q13" s="53">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R13" s="53">
         <v>2.75</v>
@@ -14523,17 +14690,21 @@
         <f t="shared" si="2"/>
         <v>18.425000000000001</v>
       </c>
-      <c r="V13" s="53">
+      <c r="V13" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>36.85</v>
+      </c>
+      <c r="W13" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:26">
       <c r="A14" s="56" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B14" s="56"/>
       <c r="C14" s="56" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D14" s="53">
         <v>67</v>
@@ -14547,7 +14718,7 @@
       <c r="N14" s="56"/>
       <c r="O14" s="56"/>
       <c r="Q14" s="53">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R14" s="53">
         <v>2.75</v>
@@ -14564,17 +14735,21 @@
         <f t="shared" si="2"/>
         <v>18.425000000000001</v>
       </c>
-      <c r="V14" s="53">
+      <c r="V14" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>36.85</v>
+      </c>
+      <c r="W14" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:26">
       <c r="A15" s="56" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B15" s="56"/>
       <c r="C15" s="56" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D15" s="53">
         <v>67</v>
@@ -14588,7 +14763,7 @@
       <c r="N15" s="56"/>
       <c r="O15" s="56"/>
       <c r="Q15" s="53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R15" s="53">
         <v>2.75</v>
@@ -14605,17 +14780,21 @@
         <f t="shared" si="2"/>
         <v>18.425000000000001</v>
       </c>
-      <c r="V15" s="53">
+      <c r="V15" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>36.85</v>
+      </c>
+      <c r="W15" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:26">
       <c r="A16" s="56" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B16" s="56"/>
       <c r="C16" s="56" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D16" s="53">
         <v>67</v>
@@ -14629,7 +14808,7 @@
       <c r="N16" s="56"/>
       <c r="O16" s="56"/>
       <c r="Q16" s="53">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R16" s="53">
         <v>2.75</v>
@@ -14646,132 +14825,80 @@
         <f t="shared" si="2"/>
         <v>18.425000000000001</v>
       </c>
-      <c r="V16" s="53">
+      <c r="V16" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>36.85</v>
+      </c>
+      <c r="W16" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23">
       <c r="A17" s="56" t="s">
-        <v>475</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>501</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="B17" s="56"/>
       <c r="C17" s="56" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="D17" s="53">
-        <v>167</v>
-      </c>
-      <c r="E17" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="F17" s="56" t="s">
-        <v>434</v>
-      </c>
-      <c r="G17" s="53">
-        <v>10</v>
-      </c>
-      <c r="H17" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="I17" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="53">
-        <v>10</v>
-      </c>
-      <c r="K17" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="L17" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="M17" s="53">
-        <v>10</v>
-      </c>
-      <c r="N17" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="O17" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="53">
-        <v>10</v>
-      </c>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
       <c r="Q17" s="53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R17" s="53">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="S17" s="55">
         <f t="shared" si="0"/>
-        <v>12.525000000000002</v>
+        <v>6.1416666666666666</v>
       </c>
       <c r="T17" s="55">
         <f t="shared" si="1"/>
-        <v>6.2625000000000011</v>
+        <v>3.0708333333333333</v>
       </c>
       <c r="U17" s="55">
         <f t="shared" si="2"/>
-        <v>62.625000000000014</v>
-      </c>
-      <c r="V17" s="53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>18.425000000000001</v>
+      </c>
+      <c r="V17" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>36.85</v>
+      </c>
+      <c r="W17" s="53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="56" t="s">
-        <v>476</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>502</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="B18" s="56"/>
       <c r="C18" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D18" s="53">
         <v>167</v>
       </c>
-      <c r="E18" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="F18" s="56" t="s">
-        <v>434</v>
-      </c>
-      <c r="G18" s="53">
-        <v>10</v>
-      </c>
-      <c r="H18" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="I18" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="J18" s="53">
-        <v>10</v>
-      </c>
-      <c r="K18" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="L18" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="53">
-        <v>10</v>
-      </c>
-      <c r="N18" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="O18" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="P18" s="53">
-        <v>10</v>
-      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
       <c r="Q18" s="53">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R18" s="53">
         <v>2.25</v>
@@ -14788,61 +14915,35 @@
         <f t="shared" si="2"/>
         <v>62.625000000000014</v>
       </c>
-      <c r="V18" s="53">
+      <c r="V18" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>125.25000000000003</v>
+      </c>
+      <c r="W18" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:23">
       <c r="A19" s="56" t="s">
-        <v>477</v>
-      </c>
-      <c r="B19" s="56" t="s">
-        <v>503</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="B19" s="56"/>
       <c r="C19" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D19" s="53">
         <v>167</v>
       </c>
-      <c r="E19" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>434</v>
-      </c>
-      <c r="G19" s="53">
-        <v>10</v>
-      </c>
-      <c r="H19" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="I19" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="53">
-        <v>10</v>
-      </c>
-      <c r="K19" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="L19" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" s="53">
-        <v>10</v>
-      </c>
-      <c r="N19" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="O19" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="P19" s="53">
-        <v>10</v>
-      </c>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
       <c r="Q19" s="53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R19" s="53">
         <v>2.25</v>
@@ -14859,17 +14960,21 @@
         <f t="shared" si="2"/>
         <v>62.625000000000014</v>
       </c>
-      <c r="V19" s="53">
+      <c r="V19" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>125.25000000000003</v>
+      </c>
+      <c r="W19" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:23">
       <c r="A20" s="56" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B20" s="56"/>
       <c r="C20" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D20" s="53">
         <v>167</v>
@@ -14883,7 +14988,7 @@
       <c r="N20" s="56"/>
       <c r="O20" s="56"/>
       <c r="Q20" s="53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R20" s="53">
         <v>2.25</v>
@@ -14900,17 +15005,21 @@
         <f t="shared" si="2"/>
         <v>62.625000000000014</v>
       </c>
-      <c r="V20" s="53">
+      <c r="V20" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>125.25000000000003</v>
+      </c>
+      <c r="W20" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:23">
       <c r="A21" s="56" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B21" s="56"/>
       <c r="C21" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D21" s="53">
         <v>167</v>
@@ -14924,7 +15033,7 @@
       <c r="N21" s="56"/>
       <c r="O21" s="56"/>
       <c r="Q21" s="53">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R21" s="53">
         <v>2.25</v>
@@ -14941,17 +15050,21 @@
         <f t="shared" si="2"/>
         <v>62.625000000000014</v>
       </c>
-      <c r="V21" s="53">
+      <c r="V21" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>125.25000000000003</v>
+      </c>
+      <c r="W21" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:23">
       <c r="A22" s="56" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B22" s="56"/>
       <c r="C22" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D22" s="53">
         <v>167</v>
@@ -14965,7 +15078,7 @@
       <c r="N22" s="56"/>
       <c r="O22" s="56"/>
       <c r="Q22" s="53">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R22" s="53">
         <v>2.25</v>
@@ -14982,17 +15095,21 @@
         <f t="shared" si="2"/>
         <v>62.625000000000014</v>
       </c>
-      <c r="V22" s="53">
+      <c r="V22" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>125.25000000000003</v>
+      </c>
+      <c r="W22" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:23">
       <c r="A23" s="56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B23" s="56"/>
       <c r="C23" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D23" s="53">
         <v>167</v>
@@ -15006,7 +15123,7 @@
       <c r="N23" s="56"/>
       <c r="O23" s="56"/>
       <c r="Q23" s="53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R23" s="53">
         <v>2.25</v>
@@ -15023,17 +15140,21 @@
         <f t="shared" si="2"/>
         <v>62.625000000000014</v>
       </c>
-      <c r="V23" s="53">
+      <c r="V23" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>125.25000000000003</v>
+      </c>
+      <c r="W23" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:23">
       <c r="A24" s="56" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B24" s="56"/>
       <c r="C24" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D24" s="53">
         <v>167</v>
@@ -15047,7 +15168,7 @@
       <c r="N24" s="56"/>
       <c r="O24" s="56"/>
       <c r="Q24" s="53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R24" s="53">
         <v>2.25</v>
@@ -15064,17 +15185,21 @@
         <f t="shared" si="2"/>
         <v>62.625000000000014</v>
       </c>
-      <c r="V24" s="53">
+      <c r="V24" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>125.25000000000003</v>
+      </c>
+      <c r="W24" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:23">
       <c r="A25" s="56" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B25" s="56"/>
       <c r="C25" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D25" s="53">
         <v>167</v>
@@ -15088,7 +15213,7 @@
       <c r="N25" s="56"/>
       <c r="O25" s="56"/>
       <c r="Q25" s="53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R25" s="53">
         <v>2.25</v>
@@ -15105,17 +15230,21 @@
         <f t="shared" si="2"/>
         <v>62.625000000000014</v>
       </c>
-      <c r="V25" s="53">
+      <c r="V25" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>125.25000000000003</v>
+      </c>
+      <c r="W25" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:23">
       <c r="A26" s="56" t="s">
-        <v>593</v>
+        <v>486</v>
       </c>
       <c r="B26" s="56"/>
       <c r="C26" s="56" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="D26" s="53">
         <v>167</v>
@@ -15129,34 +15258,38 @@
       <c r="N26" s="56"/>
       <c r="O26" s="56"/>
       <c r="Q26" s="53">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R26" s="53">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="S26" s="55">
         <f t="shared" si="0"/>
-        <v>15.308333333333335</v>
+        <v>12.525000000000002</v>
       </c>
       <c r="T26" s="55">
         <f t="shared" si="1"/>
-        <v>7.6541666666666677</v>
+        <v>6.2625000000000011</v>
       </c>
       <c r="U26" s="55">
         <f t="shared" si="2"/>
-        <v>76.541666666666671</v>
-      </c>
-      <c r="V26" s="53">
+        <v>62.625000000000014</v>
+      </c>
+      <c r="V26" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>125.25000000000003</v>
+      </c>
+      <c r="W26" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:23">
       <c r="A27" s="56" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B27" s="56"/>
       <c r="C27" s="56" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D27" s="53">
         <v>167</v>
@@ -15170,7 +15303,7 @@
       <c r="N27" s="56"/>
       <c r="O27" s="56"/>
       <c r="Q27" s="53">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R27" s="53">
         <v>2.75</v>
@@ -15187,17 +15320,21 @@
         <f t="shared" si="2"/>
         <v>76.541666666666671</v>
       </c>
-      <c r="V27" s="53">
+      <c r="V27" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>153.08333333333334</v>
+      </c>
+      <c r="W27" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:23">
       <c r="A28" s="56" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B28" s="56"/>
       <c r="C28" s="56" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D28" s="53">
         <v>167</v>
@@ -15211,7 +15348,7 @@
       <c r="N28" s="56"/>
       <c r="O28" s="56"/>
       <c r="Q28" s="53">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R28" s="53">
         <v>2.75</v>
@@ -15228,17 +15365,21 @@
         <f t="shared" si="2"/>
         <v>76.541666666666671</v>
       </c>
-      <c r="V28" s="53">
+      <c r="V28" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>153.08333333333334</v>
+      </c>
+      <c r="W28" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:23">
       <c r="A29" s="56" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="B29" s="56"/>
       <c r="C29" s="56" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D29" s="53">
         <v>167</v>
@@ -15252,7 +15393,7 @@
       <c r="N29" s="56"/>
       <c r="O29" s="56"/>
       <c r="Q29" s="53">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R29" s="53">
         <v>2.75</v>
@@ -15269,17 +15410,21 @@
         <f t="shared" si="2"/>
         <v>76.541666666666671</v>
       </c>
-      <c r="V29" s="53">
+      <c r="V29" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>153.08333333333334</v>
+      </c>
+      <c r="W29" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:23">
       <c r="A30" s="56" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="B30" s="56"/>
       <c r="C30" s="56" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D30" s="53">
         <v>167</v>
@@ -15293,7 +15438,7 @@
       <c r="N30" s="56"/>
       <c r="O30" s="56"/>
       <c r="Q30" s="53">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R30" s="53">
         <v>2.75</v>
@@ -15310,17 +15455,21 @@
         <f t="shared" si="2"/>
         <v>76.541666666666671</v>
       </c>
-      <c r="V30" s="53">
+      <c r="V30" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>153.08333333333334</v>
+      </c>
+      <c r="W30" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:23">
       <c r="A31" s="56" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B31" s="56"/>
       <c r="C31" s="56" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D31" s="53">
         <v>167</v>
@@ -15334,7 +15483,7 @@
       <c r="N31" s="56"/>
       <c r="O31" s="56"/>
       <c r="Q31" s="53">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R31" s="53">
         <v>2.75</v>
@@ -15351,20 +15500,24 @@
         <f t="shared" si="2"/>
         <v>76.541666666666671</v>
       </c>
-      <c r="V31" s="53">
+      <c r="V31" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>153.08333333333334</v>
+      </c>
+      <c r="W31" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:23">
       <c r="A32" s="56" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B32" s="56"/>
       <c r="C32" s="56" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="D32" s="53">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="E32" s="56"/>
       <c r="F32" s="56"/>
@@ -15375,34 +15528,38 @@
       <c r="N32" s="56"/>
       <c r="O32" s="56"/>
       <c r="Q32" s="53">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R32" s="53">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="S32" s="55">
         <f t="shared" si="0"/>
-        <v>23.4</v>
+        <v>15.308333333333335</v>
       </c>
       <c r="T32" s="55">
         <f t="shared" si="1"/>
-        <v>11.7</v>
+        <v>7.6541666666666677</v>
       </c>
       <c r="U32" s="55">
         <f t="shared" si="2"/>
-        <v>140.39999999999998</v>
-      </c>
-      <c r="V32" s="53">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+        <v>76.541666666666671</v>
+      </c>
+      <c r="V32" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>153.08333333333334</v>
+      </c>
+      <c r="W32" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="56" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B33" s="56"/>
       <c r="C33" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D33" s="53">
         <v>312</v>
@@ -15416,7 +15573,7 @@
       <c r="N33" s="56"/>
       <c r="O33" s="56"/>
       <c r="Q33" s="53">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R33" s="53">
         <v>2.25</v>
@@ -15433,17 +15590,21 @@
         <f t="shared" si="2"/>
         <v>140.39999999999998</v>
       </c>
-      <c r="V33" s="53">
+      <c r="V33" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>280.79999999999995</v>
+      </c>
+      <c r="W33" s="53">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:23">
       <c r="A34" s="56" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B34" s="56"/>
       <c r="C34" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D34" s="53">
         <v>312</v>
@@ -15457,7 +15618,7 @@
       <c r="N34" s="56"/>
       <c r="O34" s="56"/>
       <c r="Q34" s="53">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R34" s="53">
         <v>2.25</v>
@@ -15474,17 +15635,21 @@
         <f t="shared" si="2"/>
         <v>140.39999999999998</v>
       </c>
-      <c r="V34" s="53">
+      <c r="V34" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>280.79999999999995</v>
+      </c>
+      <c r="W34" s="53">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:23">
       <c r="A35" s="56" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="B35" s="56"/>
       <c r="C35" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D35" s="53">
         <v>312</v>
@@ -15498,7 +15663,7 @@
       <c r="N35" s="56"/>
       <c r="O35" s="56"/>
       <c r="Q35" s="53">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R35" s="53">
         <v>2.25</v>
@@ -15515,17 +15680,21 @@
         <f t="shared" si="2"/>
         <v>140.39999999999998</v>
       </c>
-      <c r="V35" s="53">
+      <c r="V35" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>280.79999999999995</v>
+      </c>
+      <c r="W35" s="53">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:23">
       <c r="A36" s="56" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="B36" s="56"/>
       <c r="C36" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D36" s="53">
         <v>312</v>
@@ -15539,7 +15708,7 @@
       <c r="N36" s="56"/>
       <c r="O36" s="56"/>
       <c r="Q36" s="53">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R36" s="53">
         <v>2.25</v>
@@ -15556,17 +15725,21 @@
         <f t="shared" si="2"/>
         <v>140.39999999999998</v>
       </c>
-      <c r="V36" s="53">
+      <c r="V36" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>280.79999999999995</v>
+      </c>
+      <c r="W36" s="53">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:23">
       <c r="A37" s="56" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="B37" s="56"/>
       <c r="C37" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D37" s="53">
         <v>312</v>
@@ -15580,7 +15753,7 @@
       <c r="N37" s="56"/>
       <c r="O37" s="56"/>
       <c r="Q37" s="53">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R37" s="53">
         <v>2.25</v>
@@ -15597,17 +15770,21 @@
         <f t="shared" si="2"/>
         <v>140.39999999999998</v>
       </c>
-      <c r="V37" s="53">
+      <c r="V37" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>280.79999999999995</v>
+      </c>
+      <c r="W37" s="53">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:23">
       <c r="A38" s="56" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="B38" s="56"/>
       <c r="C38" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D38" s="53">
         <v>312</v>
@@ -15621,7 +15798,7 @@
       <c r="N38" s="56"/>
       <c r="O38" s="56"/>
       <c r="Q38" s="53">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R38" s="53">
         <v>2.25</v>
@@ -15638,17 +15815,21 @@
         <f t="shared" si="2"/>
         <v>140.39999999999998</v>
       </c>
-      <c r="V38" s="53">
+      <c r="V38" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>280.79999999999995</v>
+      </c>
+      <c r="W38" s="53">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:23">
       <c r="A39" s="56" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B39" s="56"/>
       <c r="C39" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D39" s="53">
         <v>312</v>
@@ -15662,7 +15843,7 @@
       <c r="N39" s="56"/>
       <c r="O39" s="56"/>
       <c r="Q39" s="53">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R39" s="53">
         <v>2.25</v>
@@ -15679,17 +15860,21 @@
         <f t="shared" si="2"/>
         <v>140.39999999999998</v>
       </c>
-      <c r="V39" s="53">
+      <c r="V39" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>280.79999999999995</v>
+      </c>
+      <c r="W39" s="53">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:23">
       <c r="A40" s="56" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="B40" s="56"/>
       <c r="C40" s="56" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D40" s="53">
         <v>312</v>
@@ -15703,7 +15888,7 @@
       <c r="N40" s="56"/>
       <c r="O40" s="56"/>
       <c r="Q40" s="53">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R40" s="53">
         <v>2.25</v>
@@ -15720,17 +15905,21 @@
         <f t="shared" si="2"/>
         <v>140.39999999999998</v>
       </c>
-      <c r="V40" s="53">
+      <c r="V40" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>280.79999999999995</v>
+      </c>
+      <c r="W40" s="53">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:23">
       <c r="A41" s="56" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B41" s="56"/>
       <c r="C41" s="56" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="D41" s="53">
         <v>312</v>
@@ -15744,34 +15933,38 @@
       <c r="N41" s="56"/>
       <c r="O41" s="56"/>
       <c r="Q41" s="53">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R41" s="53">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="S41" s="55">
         <f t="shared" si="0"/>
-        <v>28.599999999999994</v>
+        <v>23.4</v>
       </c>
       <c r="T41" s="55">
         <f t="shared" si="1"/>
-        <v>14.299999999999997</v>
+        <v>11.7</v>
       </c>
       <c r="U41" s="55">
         <f t="shared" si="2"/>
-        <v>171.59999999999997</v>
-      </c>
-      <c r="V41" s="53">
+        <v>140.39999999999998</v>
+      </c>
+      <c r="V41" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>280.79999999999995</v>
+      </c>
+      <c r="W41" s="53">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:23">
       <c r="A42" s="56" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B42" s="56"/>
       <c r="C42" s="56" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D42" s="53">
         <v>312</v>
@@ -15785,7 +15978,7 @@
       <c r="N42" s="56"/>
       <c r="O42" s="56"/>
       <c r="Q42" s="53">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R42" s="53">
         <v>2.75</v>
@@ -15802,17 +15995,21 @@
         <f t="shared" si="2"/>
         <v>171.59999999999997</v>
       </c>
-      <c r="V42" s="53">
+      <c r="V42" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>343.19999999999993</v>
+      </c>
+      <c r="W42" s="53">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:23">
       <c r="A43" s="56" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="B43" s="56"/>
       <c r="C43" s="56" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D43" s="53">
         <v>312</v>
@@ -15826,7 +16023,7 @@
       <c r="N43" s="56"/>
       <c r="O43" s="56"/>
       <c r="Q43" s="53">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R43" s="53">
         <v>2.75</v>
@@ -15843,17 +16040,21 @@
         <f t="shared" si="2"/>
         <v>171.59999999999997</v>
       </c>
-      <c r="V43" s="53">
+      <c r="V43" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>343.19999999999993</v>
+      </c>
+      <c r="W43" s="53">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:23">
       <c r="A44" s="56" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="B44" s="56"/>
       <c r="C44" s="56" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D44" s="53">
         <v>312</v>
@@ -15867,7 +16068,7 @@
       <c r="N44" s="56"/>
       <c r="O44" s="56"/>
       <c r="Q44" s="53">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R44" s="53">
         <v>2.75</v>
@@ -15884,17 +16085,21 @@
         <f t="shared" si="2"/>
         <v>171.59999999999997</v>
       </c>
-      <c r="V44" s="53">
+      <c r="V44" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>343.19999999999993</v>
+      </c>
+      <c r="W44" s="53">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:23">
       <c r="A45" s="56" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="B45" s="56"/>
       <c r="C45" s="56" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D45" s="53">
         <v>312</v>
@@ -15908,7 +16113,7 @@
       <c r="N45" s="56"/>
       <c r="O45" s="56"/>
       <c r="Q45" s="53">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R45" s="53">
         <v>2.75</v>
@@ -15925,17 +16130,21 @@
         <f t="shared" si="2"/>
         <v>171.59999999999997</v>
       </c>
-      <c r="V45" s="53">
+      <c r="V45" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>343.19999999999993</v>
+      </c>
+      <c r="W45" s="53">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:23">
       <c r="A46" s="56" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B46" s="56"/>
       <c r="C46" s="56" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="D46" s="53">
         <v>312</v>
@@ -15949,7 +16158,7 @@
       <c r="N46" s="56"/>
       <c r="O46" s="56"/>
       <c r="Q46" s="53">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R46" s="53">
         <v>2.75</v>
@@ -15966,7 +16175,56 @@
         <f t="shared" si="2"/>
         <v>171.59999999999997</v>
       </c>
-      <c r="V46" s="53">
+      <c r="V46" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>343.19999999999993</v>
+      </c>
+      <c r="W46" s="53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="56" t="s">
+        <v>602</v>
+      </c>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56" t="s">
+        <v>603</v>
+      </c>
+      <c r="D47" s="53">
+        <v>312</v>
+      </c>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="Q47" s="53">
+        <v>45</v>
+      </c>
+      <c r="R47" s="53">
+        <v>2.75</v>
+      </c>
+      <c r="S47" s="55">
+        <f t="shared" si="0"/>
+        <v>28.599999999999994</v>
+      </c>
+      <c r="T47" s="55">
+        <f t="shared" si="1"/>
+        <v>14.299999999999997</v>
+      </c>
+      <c r="U47" s="55">
+        <f t="shared" si="2"/>
+        <v>171.59999999999997</v>
+      </c>
+      <c r="V47" s="55">
+        <f>표8[[#This Row],[부분능력]]*2</f>
+        <v>343.19999999999993</v>
+      </c>
+      <c r="W47" s="53">
         <v>6</v>
       </c>
     </row>

--- a/Doc/XmlDataDocument_170515_장비추가.xlsx
+++ b/Doc/XmlDataDocument_170515_장비추가.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020" activeTab="5"/>
+    <workbookView xWindow="15300" yWindow="45" windowWidth="12300" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Consumable" sheetId="7" r:id="rId1"/>
@@ -3200,7 +3200,7 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="177" formatCode="0.0_ "/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -3218,7 +3218,7 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="177" formatCode="0.0_ "/>
     </dxf>
     <dxf>
       <font>
@@ -5126,10 +5126,10 @@
     <tableColumn id="21" uniqueName="21" name="부분능력" dataDxfId="2">
       <calculatedColumnFormula>S2*W2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" uniqueName="23" name="부분크리능력" dataDxfId="0">
+    <tableColumn id="23" uniqueName="23" name="부분크리능력" dataDxfId="1">
       <calculatedColumnFormula>표8[[#This Row],[부분능력]]*2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" uniqueName="22" name="당시e갯수" dataDxfId="1"/>
+    <tableColumn id="22" uniqueName="22" name="당시e갯수" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7458,8 +7458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13974,7 +13974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
